--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -31,43 +31,169 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
     <t>dog/dog003.png</t>
   </si>
   <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
   </si>
   <si>
     <t>flower/flower015.png</t>
@@ -76,739 +202,613 @@
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
   </si>
   <si>
     <t>dog/dog002.png</t>
   </si>
   <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
   </si>
   <si>
     <t>dog/dog024.png</t>
   </si>
   <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
+    <t>flower/flower018.png</t>
   </si>
   <si>
     <t>dog/dog025.png</t>
   </si>
   <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
     <t>face/face026.png</t>
   </si>
   <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
   </si>
   <si>
     <t>face/face028.png</t>
   </si>
   <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
   </si>
   <si>
     <t>dog/dog039.png</t>
   </si>
   <si>
-    <t>dog/dog036.png</t>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
   </si>
   <si>
     <t>dog/dog042.png</t>
   </si>
   <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
   </si>
   <si>
     <t>car/car034.png</t>
   </si>
   <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
   </si>
   <si>
     <t>dog/dog034.png</t>
   </si>
   <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
   </si>
   <si>
     <t>face/face047.png</t>
   </si>
   <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
   </si>
   <si>
     <t>face/face058.png</t>
   </si>
   <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
   </si>
   <si>
     <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.488309423747897</v>
+        <v>1.729628321859576</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.745633756604866</v>
+        <v>1.492253611530562</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.464227235867132</v>
+        <v>1.626215188461383</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.313714974040972</v>
+        <v>1.512095515059874</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.649316001174839</v>
+        <v>1.673401907591362</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.58089013098729</v>
+        <v>1.726716699178334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.63891285040277</v>
+        <v>1.456773197882228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.229822236688872</v>
+        <v>1.432151741274983</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.633384244068834</v>
+        <v>1.407914683488907</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.631214550190428</v>
+        <v>1.326749925561563</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.485185767283019</v>
+        <v>1.415211649314303</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.609948357881866</v>
+        <v>1.50194038880163</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.487964363776293</v>
+        <v>1.11682415699592</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.533974119947557</v>
+        <v>1.677398721826843</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.519025676052098</v>
+        <v>1.175110446326231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.436026469967283</v>
+        <v>1.221500092277316</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.467840464654406</v>
+        <v>1.408100199970476</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.438331453776287</v>
+        <v>1.377960146570683</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.342817970771292</v>
+        <v>1.388777018152891</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.473887181038446</v>
+        <v>1.156402268474822</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.736552231649897</v>
+        <v>1.555820109714794</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.556858203015213</v>
+        <v>1.70963950727479</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.394686896730277</v>
+        <v>1.273745539481346</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.35493150016056</v>
+        <v>1.396588490894899</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.416400956584117</v>
+        <v>1.32188670038802</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.480402149426033</v>
+        <v>1.438312643543743</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.180677292143796</v>
+        <v>1.35830227254071</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.570465033228942</v>
+        <v>1.245503498309972</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.713472720386405</v>
+        <v>1.608326506672251</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.826930445157679</v>
+        <v>1.270400038034867</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.659600001002072</v>
+        <v>1.655178154211923</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.537426352958662</v>
+        <v>1.674817794353396</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1.581014915697799</v>
+        <v>1.632041132789739</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.408004164624099</v>
+        <v>1.620950821768482</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.668246223889261</v>
+        <v>1.403235221865376</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.269639373679437</v>
+        <v>1.373166873901232</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.427209444730487</v>
+        <v>1.44460488930957</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.662611735724072</v>
+        <v>1.426494922716259</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.281410097448665</v>
+        <v>1.317773174116696</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.396814257116987</v>
+        <v>1.443178132150599</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.399740080274136</v>
+        <v>1.830980064147018</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.246706185311246</v>
+        <v>1.480569745857637</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.376273556316057</v>
+        <v>1.301112835317623</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.275121935333906</v>
+        <v>1.402517587945528</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.363271932106931</v>
+        <v>1.313595360175514</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.535730638253517</v>
+        <v>1.404460339519978</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.509623884221019</v>
+        <v>1.690468626806261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.581822605266102</v>
+        <v>1.40247755696306</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.39188772262078</v>
+        <v>1.40525866383336</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.598163948092573</v>
+        <v>1.49268894124955</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.580035272213415</v>
+        <v>1.391042175201695</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.447906242034227</v>
+        <v>1.707089229957325</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.407077746564549</v>
+        <v>1.629675714320221</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.298113244753256</v>
+        <v>1.420586021955447</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.423681573414552</v>
+        <v>1.557716725812723</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.50863664288079</v>
+        <v>1.44933655275389</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.467741030502864</v>
+        <v>1.383862827387498</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.601359700624435</v>
+        <v>1.583695278339371</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.287238735861612</v>
+        <v>1.482890683669989</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.556330946959547</v>
+        <v>1.300954378679651</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.7799202185408</v>
+        <v>1.528745984973472</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.330759723578341</v>
+        <v>1.4212887094918</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1.474710055993813</v>
+        <v>1.512843423528414</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.355788662911653</v>
+        <v>1.692779883285494</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.481159043479123</v>
+        <v>1.474357077897616</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.477866008243075</v>
+        <v>1.333621874457423</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.528686915386947</v>
+        <v>1.507577506432984</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.56863772271258</v>
+        <v>1.557035193131311</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.554999715828618</v>
+        <v>1.272803309325993</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.737631507469123</v>
+        <v>1.545714586278865</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.420824990668463</v>
+        <v>1.572129042723786</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.441065462505139</v>
+        <v>1.222723467458104</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.520517120815</v>
+        <v>1.69018936177339</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.47436388855906</v>
+        <v>1.576087030650408</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.649123117907374</v>
+        <v>1.370982196185577</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.538327301496041</v>
+        <v>1.311446955668076</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.651671198404751</v>
+        <v>1.658215221445093</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.571933748525531</v>
+        <v>1.48110559765214</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.423749235438889</v>
+        <v>1.563346677698271</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.366539477131512</v>
+        <v>1.625606227219857</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.58562611798967</v>
+        <v>1.610420908791758</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.317224009646088</v>
+        <v>1.664742153890111</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.618463116251791</v>
+        <v>1.697041228054296</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.571473767163735</v>
+        <v>1.818892176879628</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.599776489275241</v>
+        <v>1.669611463200914</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.423876070097857</v>
+        <v>1.590423363705229</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.4853783478366</v>
+        <v>1.44897580558594</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.470886879535286</v>
+        <v>1.225125674357988</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.679004322106989</v>
+        <v>1.6658131400335</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.797546076083792</v>
+        <v>1.226486950519966</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1.543823649168517</v>
+        <v>1.480062218365543</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.173414151729705</v>
+        <v>1.579493173579249</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.239820161471426</v>
+        <v>1.353246441566129</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.49245283548279</v>
+        <v>1.590294068737263</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1.498790567471037</v>
+        <v>1.421738289715436</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.619917996564744</v>
+        <v>1.511266494583651</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.692230620644632</v>
+        <v>1.146273954097889</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.3929396520562</v>
+        <v>1.872034776169742</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.398212764222267</v>
+        <v>1.537889225882212</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.849632029844405</v>
+        <v>1.605705966903122</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.740079205667997</v>
+        <v>1.321350151495992</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.21370148839856</v>
+        <v>1.366383452230838</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.435912840586731</v>
+        <v>1.525119621792205</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.569312039800637</v>
+        <v>1.342655821955588</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.465957893124386</v>
+        <v>1.460660507059101</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.347322581350789</v>
+        <v>1.356403643043967</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.470003160648735</v>
+        <v>1.445059826240164</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.361630520066637</v>
+        <v>1.34627902498701</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.485456306115035</v>
+        <v>1.561402696308237</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.355569299179257</v>
+        <v>1.535451285311567</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.297530996382705</v>
+        <v>1.818118338697486</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.372318490420911</v>
+        <v>1.364751881137128</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.391173241155902</v>
+        <v>1.296413302932186</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.740287662184248</v>
+        <v>1.322696975232838</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.585631984387974</v>
+        <v>1.306999383281978</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.399166312848806</v>
+        <v>1.374432836741921</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.756387875247836</v>
+        <v>1.210757506286506</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.691500922684017</v>
+        <v>1.64375309480165</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.409028989014093</v>
+        <v>1.604870002874346</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.508862795253571</v>
+        <v>1.298403888237594</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.453826821797321</v>
+        <v>1.490641866854164</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.540778608706117</v>
+        <v>1.585427836026688</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.720625306105304</v>
+        <v>1.427717324914377</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.607491777119049</v>
+        <v>1.360583917201316</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.591864361892281</v>
+        <v>1.563366884731485</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.627147645500069</v>
+        <v>1.273374358299026</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.701705583108566</v>
+        <v>1.471520129420713</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.590537336092355</v>
+        <v>1.20751564662762</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.506204121586823</v>
+        <v>1.439847385439047</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.528317792561502</v>
+        <v>1.408902017294541</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.391409392314062</v>
+        <v>1.342751510970518</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.409485013875233</v>
+        <v>1.455573220042244</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.110948984523185</v>
+        <v>1.508182763887473</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.602961684291939</v>
+        <v>1.60653527623452</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.682174813715896</v>
+        <v>1.612638553136977</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.30543441127618</v>
+        <v>1.524656536978964</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.611171369656484</v>
+        <v>1.745849756441472</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.52624694704773</v>
+        <v>1.318998790286364</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.064793039245231</v>
+        <v>1.514163272097011</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.595544612391936</v>
+        <v>1.473498826771562</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.557132654335139</v>
+        <v>1.490135401095148</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.593087582601372</v>
+        <v>1.591516635787559</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.540450821215082</v>
+        <v>1.39492467386605</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.410384751339652</v>
+        <v>1.440547485997937</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.760072752103857</v>
+        <v>1.358887130981109</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.562546542626156</v>
+        <v>1.567739734071268</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.530573006324696</v>
+        <v>1.662698903285063</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.454112767295098</v>
+        <v>1.405185450464265</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.580915856208892</v>
+        <v>1.636466578961615</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.322854654097007</v>
+        <v>1.611496833550775</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.556660835922358</v>
+        <v>1.407027668246549</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.697194726300725</v>
+        <v>1.690396705298777</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.42270001459673</v>
+        <v>1.485664257326345</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.314695502566219</v>
+        <v>1.770223157283931</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.777080628016989</v>
+        <v>1.45856777074379</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.75883680810391</v>
+        <v>1.523767626283685</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.521782683230649</v>
+        <v>1.412111347823859</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.595660636923216</v>
+        <v>1.303134431602372</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.606422230200968</v>
+        <v>1.529516516847237</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.772602299807643</v>
+        <v>1.532525874319465</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.331786255055867</v>
+        <v>1.364761335221587</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.541119431576512</v>
+        <v>1.568698235844578</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.663508009618148</v>
+        <v>1.476218843537258</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.479244177272188</v>
+        <v>1.293515018283522</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.684893132962119</v>
+        <v>1.445151889868265</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.428503679188535</v>
+        <v>1.551845851164455</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.291024153546121</v>
+        <v>1.572532016146778</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.622503562768947</v>
+        <v>1.605978713151605</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.207261978042454</v>
+        <v>1.600765205180415</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.460638153378157</v>
+        <v>1.644149044408251</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.381255668006823</v>
+        <v>1.564920257359687</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.515164490333043</v>
+        <v>1.32409582327654</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.455063762824323</v>
+        <v>1.466070961069422</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1.439118822582888</v>
+        <v>1.15392842388525</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.454684359093106</v>
+        <v>1.256126437715387</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>1.448041260086948</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.350237145906719</v>
+        <v>1.583196917161165</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.739762178019783</v>
+        <v>1.057609595384006</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.458683024956159</v>
+        <v>1.426999925522766</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.501340136418019</v>
+        <v>1.693280716346665</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.670367011189498</v>
+        <v>1.479705134898864</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.46050602321382</v>
+        <v>1.528430742535456</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.371111914748646</v>
+        <v>1.228372658322958</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.404877939852369</v>
+        <v>1.464612181118472</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.63993582531609</v>
+        <v>1.544849798148274</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.725367858095294</v>
+        <v>1.44804224241517</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.543692892347359</v>
+        <v>1.433480728137502</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.479323610894845</v>
+        <v>1.659816002537905</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.584351179648347</v>
+        <v>1.308111277264515</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.434036836048743</v>
+        <v>1.639672712821132</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.453008287711384</v>
+        <v>1.392415251241299</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.429829038728622</v>
+        <v>1.328898246416351</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.351398134677667</v>
+        <v>1.361047984597822</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.542076335278935</v>
+        <v>1.550443253309819</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.604267484810468</v>
+        <v>1.804741825138196</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.730274799605014</v>
+        <v>1.447120120747273</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.549404973164999</v>
+        <v>1.277772802358055</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.718916269557747</v>
+        <v>1.504148676310031</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.457523774523234</v>
+        <v>1.576120324230955</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.291844668921403</v>
+        <v>1.659568396681771</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.418933809877998</v>
+        <v>1.441712457084516</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.570289958679641</v>
+        <v>1.567431263563117</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.385205208295359</v>
+        <v>1.43471928892144</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.629885922678298</v>
+        <v>1.525061385816808</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.455832599631696</v>
+        <v>1.529436843940782</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.459724302819239</v>
+        <v>1.65658475399704</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.325073776562696</v>
+        <v>1.428134205311641</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.469473954879404</v>
+        <v>1.502495335920391</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.750140938668849</v>
+        <v>1.344265053745883</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.314814523601553</v>
+        <v>1.479158710087912</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.571358177877699</v>
+        <v>1.517370080015222</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.361449044305147</v>
+        <v>1.528754759590817</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.368158495611383</v>
+        <v>1.201992453799189</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.689249970852964</v>
+        <v>1.379161980084051</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.494462703107848</v>
+        <v>1.66582417067134</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.350701397346566</v>
+        <v>1.771884460946335</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.76787913841963</v>
+        <v>1.550043836386535</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.641254974952976</v>
+        <v>1.545670474831808</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.425076760633567</v>
+        <v>1.480925637198886</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.965599902865754</v>
+        <v>1.256894936898589</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.683335681650527</v>
+        <v>1.481420986875158</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.449220554349882</v>
+        <v>1.354911073950431</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.269529362489462</v>
+        <v>1.937961818447371</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.534410275799657</v>
+        <v>1.518099468947885</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.540825583539876</v>
+        <v>1.543629096587061</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.567415754157986</v>
+        <v>1.252658296034533</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.368528671524895</v>
+        <v>1.354289135017504</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.345653151641512</v>
+        <v>1.310718372079407</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.578170460934476</v>
+        <v>1.318451901963027</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.563660851515097</v>
+        <v>1.298098429650357</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.51556301624505</v>
+        <v>1.224794537610015</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.521971094827504</v>
+        <v>1.53265492503469</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.431804659789502</v>
+        <v>1.577469778457399</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.456761201475756</v>
+        <v>1.442727470281862</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.63468468145031</v>
+        <v>1.280988775006593</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.468616527854034</v>
+        <v>1.54051645309009</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.640139127886574</v>
+        <v>1.405399887063862</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.303153159493059</v>
+        <v>1.280273723936585</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.50409414188295</v>
+        <v>1.759736380264848</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.575040116046432</v>
+        <v>1.411268462023572</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.669479021790902</v>
+        <v>1.507828108894935</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.537440362255047</v>
+        <v>1.402486134422441</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.639383263932397</v>
+        <v>1.685970598373194</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.365711710179348</v>
+        <v>1.499460331620047</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.651224199477075</v>
+        <v>1.632211201096785</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>1.487699552386357</v>
+        <v>1.515781738739985</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.327635996566048</v>
+        <v>1.375948834014906</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.616135007520206</v>
+        <v>1.439933349457061</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.660754424035877</v>
+        <v>1.598993400910883</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.504115850795323</v>
+        <v>1.495685228760253</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.627324290894699</v>
+        <v>1.378277260990603</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.154097019584213</v>
+        <v>1.598104400843023</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.435876463656169</v>
+        <v>1.564170286596079</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.687612529201239</v>
+        <v>1.590497257731588</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.530208394278532</v>
+        <v>1.524823069535933</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.810140253776338</v>
+        <v>1.49838079984288</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.729628321859576</v>
+        <v>1.235539948231618</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.492253611530562</v>
+        <v>1.272418917686879</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.626215188461383</v>
+        <v>1.513120009896121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.512095515059874</v>
+        <v>1.422601220580777</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.673401907591362</v>
+        <v>1.531061884836131</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.726716699178334</v>
+        <v>1.441621183178893</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.456773197882228</v>
+        <v>1.534132402992073</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.432151741274983</v>
+        <v>1.221676009706828</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.407914683488907</v>
+        <v>1.214648442883954</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.326749925561563</v>
+        <v>1.442024090314542</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.415211649314303</v>
+        <v>1.59573762371644</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.50194038880163</v>
+        <v>1.920884107839761</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.11682415699592</v>
+        <v>1.203885799275706</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.677398721826843</v>
+        <v>1.407541718504239</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.175110446326231</v>
+        <v>1.463262574600699</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.221500092277316</v>
+        <v>1.422491378814139</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.408100199970476</v>
+        <v>1.534090810134036</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.377960146570683</v>
+        <v>1.241772647659842</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.388777018152891</v>
+        <v>1.496252999836942</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.156402268474822</v>
+        <v>1.627826604162187</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.555820109714794</v>
+        <v>1.311845276749557</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.70963950727479</v>
+        <v>1.493051216763445</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1.273745539481346</v>
+        <v>1.210214547361741</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.396588490894899</v>
+        <v>1.44988389441945</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.32188670038802</v>
+        <v>1.548136091621847</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.438312643543743</v>
+        <v>1.522788305838258</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.35830227254071</v>
+        <v>1.39184574517714</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.245503498309972</v>
+        <v>1.451724048664125</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.608326506672251</v>
+        <v>1.506655240101146</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.270400038034867</v>
+        <v>1.565726303176595</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.655178154211923</v>
+        <v>1.36066388052277</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.674817794353396</v>
+        <v>1.523420978497106</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.632041132789739</v>
+        <v>1.605674532534101</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.620950821768482</v>
+        <v>1.451816829413937</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.403235221865376</v>
+        <v>1.418341882538678</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.373166873901232</v>
+        <v>1.52250232503308</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.44460488930957</v>
+        <v>1.697841418898536</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.426494922716259</v>
+        <v>1.432175540595016</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.317773174116696</v>
+        <v>1.546405836000728</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.443178132150599</v>
+        <v>1.865379539616445</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.830980064147018</v>
+        <v>1.573754294497315</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.480569745857637</v>
+        <v>1.317012975207883</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.301112835317623</v>
+        <v>1.501084924007677</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.402517587945528</v>
+        <v>1.428658290307717</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.313595360175514</v>
+        <v>1.182932160278545</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.404460339519978</v>
+        <v>1.683375775214286</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.690468626806261</v>
+        <v>1.576799907057507</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.40247755696306</v>
+        <v>1.586352560735852</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.40525866383336</v>
+        <v>1.53905887289218</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.49268894124955</v>
+        <v>1.380369839809771</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.391042175201695</v>
+        <v>1.461094556970967</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.707089229957325</v>
+        <v>1.345530316169862</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.629675714320221</v>
+        <v>1.411567311002278</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.420586021955447</v>
+        <v>1.308096237160377</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.557716725812723</v>
+        <v>1.522698940801266</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.44933655275389</v>
+        <v>1.578603242154738</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.383862827387498</v>
+        <v>1.668011199347641</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.583695278339371</v>
+        <v>1.409088382800873</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.482890683669989</v>
+        <v>1.403785031403962</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.300954378679651</v>
+        <v>1.397351746986547</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.528745984973472</v>
+        <v>1.54294667671431</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.4212887094918</v>
+        <v>1.361557624057083</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.512843423528414</v>
+        <v>1.572591474953254</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.692779883285494</v>
+        <v>1.608641375129421</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.474357077897616</v>
+        <v>1.418134863215103</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.333621874457423</v>
+        <v>1.27610062697834</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.507577506432984</v>
+        <v>1.69892546315156</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.557035193131311</v>
+        <v>1.517318937013351</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.272803309325993</v>
+        <v>1.600292810085187</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1.545714586278865</v>
+        <v>1.584932755299889</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.572129042723786</v>
+        <v>1.453136837421221</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.222723467458104</v>
+        <v>1.593004144325799</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.69018936177339</v>
+        <v>1.44829703237473</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.576087030650408</v>
+        <v>1.671443740088409</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.370982196185577</v>
+        <v>1.368739326831456</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.311446955668076</v>
+        <v>1.200044081683409</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.658215221445093</v>
+        <v>1.500060930630224</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.48110559765214</v>
+        <v>1.78307598208165</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.563346677698271</v>
+        <v>1.62100003698715</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.625606227219857</v>
+        <v>1.251457988315728</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.610420908791758</v>
+        <v>1.332004637073267</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.664742153890111</v>
+        <v>1.466289262989122</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.697041228054296</v>
+        <v>1.180207208106277</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.818892176879628</v>
+        <v>1.528544025116169</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.669611463200914</v>
+        <v>1.537613980977239</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.590423363705229</v>
+        <v>1.479694270227957</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.44897580558594</v>
+        <v>1.267210424575693</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.225125674357988</v>
+        <v>1.39584543849876</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.6658131400335</v>
+        <v>1.491885270968547</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.226486950519966</v>
+        <v>1.944616348759747</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.480062218365543</v>
+        <v>1.71311572346333</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.579493173579249</v>
+        <v>1.431267366111752</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1.353246441566129</v>
+        <v>1.651917738192024</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.590294068737263</v>
+        <v>1.707030715012355</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.421738289715436</v>
+        <v>1.470304345748795</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.511266494583651</v>
+        <v>1.38083787520924</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.146273954097889</v>
+        <v>1.161279780730478</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.872034776169742</v>
+        <v>1.498776173206771</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.537889225882212</v>
+        <v>1.662201159225178</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.605705966903122</v>
+        <v>1.395261129023114</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.321350151495992</v>
+        <v>1.58184101885441</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.366383452230838</v>
+        <v>1.530500681997579</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.525119621792205</v>
+        <v>1.596625002709111</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.342655821955588</v>
+        <v>1.533194901236147</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.460660507059101</v>
+        <v>1.494234121560835</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.356403643043967</v>
+        <v>1.430878891696593</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.445059826240164</v>
+        <v>1.57646187322795</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.34627902498701</v>
+        <v>1.355493554166684</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.561402696308237</v>
+        <v>1.492183545922749</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.535451285311567</v>
+        <v>1.374869151975631</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.818118338697486</v>
+        <v>1.628221411904819</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.364751881137128</v>
+        <v>1.279918092646576</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.296413302932186</v>
+        <v>1.153594448050531</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.322696975232838</v>
+        <v>1.675478727834936</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.306999383281978</v>
+        <v>1.146516600709229</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.374432836741921</v>
+        <v>1.630713636310325</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.210757506286506</v>
+        <v>1.404998711125023</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.64375309480165</v>
+        <v>1.49995829474858</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.604870002874346</v>
+        <v>1.303380574417406</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.298403888237594</v>
+        <v>1.419029253297102</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.490641866854164</v>
+        <v>1.570889622745107</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.585427836026688</v>
+        <v>1.407972417968053</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.427717324914377</v>
+        <v>1.654736406764653</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.360583917201316</v>
+        <v>1.398196731297747</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.563366884731485</v>
+        <v>1.484682698899588</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.273374358299026</v>
+        <v>1.554699050345121</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.471520129420713</v>
+        <v>1.644824511048991</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.20751564662762</v>
+        <v>1.411575128017947</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.439847385439047</v>
+        <v>1.441235474486529</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.408902017294541</v>
+        <v>1.460271949877812</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.342751510970518</v>
+        <v>1.777716486749564</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.455573220042244</v>
+        <v>1.622110773152408</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.508182763887473</v>
+        <v>1.513408095765154</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.60653527623452</v>
+        <v>1.421948693450815</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.612638553136977</v>
+        <v>1.688403864067</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.524656536978964</v>
+        <v>1.491017413932021</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.745849756441472</v>
+        <v>1.315636849469916</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.318998790286364</v>
+        <v>1.382812463897835</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.514163272097011</v>
+        <v>1.378414292966027</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.473498826771562</v>
+        <v>1.465963913759296</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.490135401095148</v>
+        <v>1.714840824837533</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.591516635787559</v>
+        <v>1.58100358863771</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.39492467386605</v>
+        <v>1.734028366727516</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.440547485997937</v>
+        <v>1.284045477039494</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.358887130981109</v>
+        <v>1.58563892201317</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.567739734071268</v>
+        <v>1.635641948921202</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.662698903285063</v>
+        <v>1.562380151101901</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.405185450464265</v>
+        <v>1.539781430917871</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.636466578961615</v>
+        <v>1.469584865481266</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.611496833550775</v>
+        <v>1.488594508810703</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.407027668246549</v>
+        <v>1.564762190783945</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.690396705298777</v>
+        <v>1.469988310007775</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.485664257326345</v>
+        <v>1.249844116717834</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.770223157283931</v>
+        <v>1.459940483749855</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.45856777074379</v>
+        <v>1.528325784106886</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1.523767626283685</v>
+        <v>1.584845889939122</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.412111347823859</v>
+        <v>1.43972158150553</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.303134431602372</v>
+        <v>1.536936990992192</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.529516516847237</v>
+        <v>1.496978000641831</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.532525874319465</v>
+        <v>1.69358497480779</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.364761335221587</v>
+        <v>1.45144054142989</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.568698235844578</v>
+        <v>1.384452990263123</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.476218843537258</v>
+        <v>1.599590009305406</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.293515018283522</v>
+        <v>1.211749533970282</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.445151889868265</v>
+        <v>1.556312929582384</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.551845851164455</v>
+        <v>1.497807933620528</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.572532016146778</v>
+        <v>1.335121029357472</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.605978713151605</v>
+        <v>1.325149789501646</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.600765205180415</v>
+        <v>1.474716918690994</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.644149044408251</v>
+        <v>1.355916884389122</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.564920257359687</v>
+        <v>1.622449811836736</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.32409582327654</v>
+        <v>1.155847046592398</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.466070961069422</v>
+        <v>1.515184776106222</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.15392842388525</v>
+        <v>1.296618394260296</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.256126437715387</v>
+        <v>1.564550415691355</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.448041260086948</v>
+        <v>1.609507006764614</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.583196917161165</v>
+        <v>1.377725294044619</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.057609595384006</v>
+        <v>1.243623851599459</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.426999925522766</v>
+        <v>1.442661449283851</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.693280716346665</v>
+        <v>1.277419092941423</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.479705134898864</v>
+        <v>1.574207525430773</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.528430742535456</v>
+        <v>1.464782639094618</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.228372658322958</v>
+        <v>1.235276618712827</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.464612181118472</v>
+        <v>1.480104805908987</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.544849798148274</v>
+        <v>1.869170707803987</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.44804224241517</v>
+        <v>1.56213448940089</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.433480728137502</v>
+        <v>1.742862723705384</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.659816002537905</v>
+        <v>1.630134244183226</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.308111277264515</v>
+        <v>1.430781605559617</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.639672712821132</v>
+        <v>1.732418962609093</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.392415251241299</v>
+        <v>1.87355047526149</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.328898246416351</v>
+        <v>1.62259042820954</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.361047984597822</v>
+        <v>1.451990265594979</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.550443253309819</v>
+        <v>1.567244272841847</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.804741825138196</v>
+        <v>1.549163770003116</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.447120120747273</v>
+        <v>1.857469000550411</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.277772802358055</v>
+        <v>1.550428353099985</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.504148676310031</v>
+        <v>1.539883359479465</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.576120324230955</v>
+        <v>1.481615658675274</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.659568396681771</v>
+        <v>1.346716014879327</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.441712457084516</v>
+        <v>1.592026674742475</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.567431263563117</v>
+        <v>1.642498911716435</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.43471928892144</v>
+        <v>1.406057049085196</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.525061385816808</v>
+        <v>1.480134970318033</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.529436843940782</v>
+        <v>1.481799978694781</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.65658475399704</v>
+        <v>1.447709854126168</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.428134205311641</v>
+        <v>1.680492328588356</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.502495335920391</v>
+        <v>1.370610265435966</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.344265053745883</v>
+        <v>1.526770572392798</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.479158710087912</v>
+        <v>1.401351910104005</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.517370080015222</v>
+        <v>1.441230464410614</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.528754759590817</v>
+        <v>1.356829340611489</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.201992453799189</v>
+        <v>1.545014502515228</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.379161980084051</v>
+        <v>1.483958307024588</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.66582417067134</v>
+        <v>1.455313418008633</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.771884460946335</v>
+        <v>1.26614736567473</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.550043836386535</v>
+        <v>1.624283604714964</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.545670474831808</v>
+        <v>1.586882478278456</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.480925637198886</v>
+        <v>1.491769234915599</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.256894936898589</v>
+        <v>1.290075606063685</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.481420986875158</v>
+        <v>1.631149425355389</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.354911073950431</v>
+        <v>1.590938018802737</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.937961818447371</v>
+        <v>1.496770332736593</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.518099468947885</v>
+        <v>1.320945994394811</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.543629096587061</v>
+        <v>1.693169096645319</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.252658296034533</v>
+        <v>1.477681278353342</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.354289135017504</v>
+        <v>1.587310183971433</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.310718372079407</v>
+        <v>1.27140965195005</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.318451901963027</v>
+        <v>1.625565333707095</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.298098429650357</v>
+        <v>1.483110838989342</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.224794537610015</v>
+        <v>1.404436980272886</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.53265492503469</v>
+        <v>1.151863236294167</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.577469778457399</v>
+        <v>1.58988990293755</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.442727470281862</v>
+        <v>1.408068252934239</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.280988775006593</v>
+        <v>1.53861562255782</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.54051645309009</v>
+        <v>1.447302113540749</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.405399887063862</v>
+        <v>1.416716716131261</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.280273723936585</v>
+        <v>1.573343927328147</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.759736380264848</v>
+        <v>1.71304244364621</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.411268462023572</v>
+        <v>1.510222693098515</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.507828108894935</v>
+        <v>1.321658888301259</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.402486134422441</v>
+        <v>1.349703987040135</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.685970598373194</v>
+        <v>1.466669474644402</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.499460331620047</v>
+        <v>1.485260055495357</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.632211201096785</v>
+        <v>1.240128242085165</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>1.515781738739985</v>
+        <v>1.360248577766308</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.375948834014906</v>
+        <v>1.373240232087017</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.439933349457061</v>
+        <v>1.437725945228262</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.598993400910883</v>
+        <v>1.432366475558682</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.495685228760253</v>
+        <v>1.506487679486956</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.378277260990603</v>
+        <v>1.50188451883655</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.598104400843023</v>
+        <v>1.574444674585866</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.564170286596079</v>
+        <v>1.578867274184775</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.590497257731588</v>
+        <v>1.388091020821457</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.524823069535933</v>
+        <v>1.400649553738634</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.49838079984288</v>
+        <v>1.592164930041451</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -34,205 +34,205 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>face/face034.jpg</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
   </si>
   <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>face/face046.jpg</t>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>flower/flower044.jpg</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
+    <t>flower/flower035.jpg</t>
   </si>
   <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
   </si>
   <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
     <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.235539948231618</v>
+        <v>1.773405700091009</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.272418917686879</v>
+        <v>1.71129540396626</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.513120009896121</v>
+        <v>1.284143456810291</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.422601220580777</v>
+        <v>1.57688743261991</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.531061884836131</v>
+        <v>1.746117173570349</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.441621183178893</v>
+        <v>1.560648073105571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.534132402992073</v>
+        <v>1.529560696056919</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.221676009706828</v>
+        <v>1.416691391862497</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.214648442883954</v>
+        <v>1.5009824844369</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.442024090314542</v>
+        <v>1.643225654088139</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.59573762371644</v>
+        <v>1.621499070221574</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.920884107839761</v>
+        <v>1.539949945468843</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.203885799275706</v>
+        <v>1.304825937760357</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.407541718504239</v>
+        <v>1.499604971049472</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.463262574600699</v>
+        <v>1.586042282141379</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.422491378814139</v>
+        <v>1.350033149191159</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.534090810134036</v>
+        <v>1.437653603316593</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.241772647659842</v>
+        <v>1.224922038629286</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.496252999836942</v>
+        <v>1.51513224005658</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.627826604162187</v>
+        <v>1.498146194490671</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.311845276749557</v>
+        <v>1.437797185657809</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.493051216763445</v>
+        <v>1.4723300967438</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1.210214547361741</v>
+        <v>1.51510744322602</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.44988389441945</v>
+        <v>1.405820508771232</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.548136091621847</v>
+        <v>1.417237073644694</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.522788305838258</v>
+        <v>1.485548316890656</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.39184574517714</v>
+        <v>1.529810290766503</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.451724048664125</v>
+        <v>1.545547519733991</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.506655240101146</v>
+        <v>1.497843997942568</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.565726303176595</v>
+        <v>1.479242705389483</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.36066388052277</v>
+        <v>1.325686864866319</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.523420978497106</v>
+        <v>1.792040266057767</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.605674532534101</v>
+        <v>1.644432116363718</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.451816829413937</v>
+        <v>1.593504771755868</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.418341882538678</v>
+        <v>1.629090155356553</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.52250232503308</v>
+        <v>1.721040258652395</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.697841418898536</v>
+        <v>1.368738229609859</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.432175540595016</v>
+        <v>1.285879849134444</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.546405836000728</v>
+        <v>1.558596171433636</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.865379539616445</v>
+        <v>1.451442198106937</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.573754294497315</v>
+        <v>1.533430075974147</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.317012975207883</v>
+        <v>1.546931842465896</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.501084924007677</v>
+        <v>1.562671708294643</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.428658290307717</v>
+        <v>1.436836736388474</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.182932160278545</v>
+        <v>1.642259975083897</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.683375775214286</v>
+        <v>1.335596427471491</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.576799907057507</v>
+        <v>1.551966313671075</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.586352560735852</v>
+        <v>1.469371500639875</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.53905887289218</v>
+        <v>1.484097202410278</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.380369839809771</v>
+        <v>1.297882693139875</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.461094556970967</v>
+        <v>1.536534035367196</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.345530316169862</v>
+        <v>1.398382335827202</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.411567311002278</v>
+        <v>1.584596416138351</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.308096237160377</v>
+        <v>1.296869800942421</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.522698940801266</v>
+        <v>1.678372017771421</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.578603242154738</v>
+        <v>1.373733087067093</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.668011199347641</v>
+        <v>1.64152781661589</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.409088382800873</v>
+        <v>1.57888840521204</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.403785031403962</v>
+        <v>1.581899183989301</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.397351746986547</v>
+        <v>1.483307722319274</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.54294667671431</v>
+        <v>1.453758176779526</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.361557624057083</v>
+        <v>1.269707009230691</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.572591474953254</v>
+        <v>1.375938082279228</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.608641375129421</v>
+        <v>1.321014735237173</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.418134863215103</v>
+        <v>1.325194159687109</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.27610062697834</v>
+        <v>1.263483325972464</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.69892546315156</v>
+        <v>1.688215923289346</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.517318937013351</v>
+        <v>1.512384518219073</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.600292810085187</v>
+        <v>1.601565323259616</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.584932755299889</v>
+        <v>1.613965305618194</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.453136837421221</v>
+        <v>1.542937021953158</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.593004144325799</v>
+        <v>1.710806163259572</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.44829703237473</v>
+        <v>1.413380423851491</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.671443740088409</v>
+        <v>1.653711894822404</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.368739326831456</v>
+        <v>1.500980240600361</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.200044081683409</v>
+        <v>1.489085993634135</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.500060930630224</v>
+        <v>1.584574362785565</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.78307598208165</v>
+        <v>1.381389244379438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.62100003698715</v>
+        <v>1.683663718139075</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.251457988315728</v>
+        <v>1.541056645962552</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.332004637073267</v>
+        <v>1.313425261673045</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.466289262989122</v>
+        <v>1.585780249976755</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.180207208106277</v>
+        <v>1.327804811798963</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.528544025116169</v>
+        <v>1.441850875341835</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.537613980977239</v>
+        <v>1.63389891410979</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.479694270227957</v>
+        <v>1.550400851217714</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.267210424575693</v>
+        <v>1.371807418541141</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.39584543849876</v>
+        <v>1.671149592588117</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.491885270968547</v>
+        <v>1.536230789854886</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.944616348759747</v>
+        <v>1.355755249394769</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.71311572346333</v>
+        <v>1.461182398115129</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.431267366111752</v>
+        <v>1.684212782970779</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.651917738192024</v>
+        <v>1.604725172135722</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.707030715012355</v>
+        <v>1.492651272395499</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.470304345748795</v>
+        <v>1.494932746029761</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.38083787520924</v>
+        <v>1.661800788955747</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.161279780730478</v>
+        <v>1.848547606860724</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.498776173206771</v>
+        <v>1.374580323126808</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.662201159225178</v>
+        <v>1.419970708531815</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.395261129023114</v>
+        <v>1.520552741765354</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.58184101885441</v>
+        <v>1.50097844212635</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.530500681997579</v>
+        <v>1.398504256328683</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.596625002709111</v>
+        <v>1.452064902377</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.533194901236147</v>
+        <v>1.695164118865764</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.494234121560835</v>
+        <v>1.409392886973194</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.430878891696593</v>
+        <v>1.379464109512388</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.57646187322795</v>
+        <v>1.690354778928481</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.355493554166684</v>
+        <v>1.54664760093523</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1.492183545922749</v>
+        <v>1.692310678319045</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.374869151975631</v>
+        <v>1.521253264275784</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.628221411904819</v>
+        <v>1.576217176320436</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.279918092646576</v>
+        <v>1.451539488572194</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.153594448050531</v>
+        <v>1.313387837267062</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.675478727834936</v>
+        <v>1.334433110882243</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.146516600709229</v>
+        <v>1.521278179117929</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.630713636310325</v>
+        <v>1.410180155993672</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.404998711125023</v>
+        <v>1.375487758416077</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.49995829474858</v>
+        <v>1.620110221044038</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.303380574417406</v>
+        <v>1.578448997671782</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.419029253297102</v>
+        <v>1.680117617846995</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.570889622745107</v>
+        <v>1.33280945581377</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.407972417968053</v>
+        <v>1.372669268342086</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.654736406764653</v>
+        <v>1.424371124429392</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.398196731297747</v>
+        <v>1.361450691538566</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.484682698899588</v>
+        <v>1.329030391268418</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.554699050345121</v>
+        <v>1.27632278199642</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.644824511048991</v>
+        <v>1.194938223189567</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.411575128017947</v>
+        <v>1.544658989627028</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.441235474486529</v>
+        <v>1.359026194400748</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.460271949877812</v>
+        <v>1.453992980787031</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.777716486749564</v>
+        <v>1.476107601852689</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.622110773152408</v>
+        <v>1.608044217157966</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.513408095765154</v>
+        <v>1.704817666669576</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.421948693450815</v>
+        <v>1.560647231319926</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.688403864067</v>
+        <v>1.330763719223139</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.491017413932021</v>
+        <v>1.337450546652278</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.315636849469916</v>
+        <v>1.643355862910111</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.382812463897835</v>
+        <v>1.810768309307241</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.378414292966027</v>
+        <v>1.509659187643215</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.465963913759296</v>
+        <v>1.319610257070148</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.714840824837533</v>
+        <v>1.298082979631477</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.58100358863771</v>
+        <v>1.512765346132888</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.734028366727516</v>
+        <v>1.356870211656842</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.284045477039494</v>
+        <v>1.644306176104638</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.58563892201317</v>
+        <v>1.290360620612943</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.635641948921202</v>
+        <v>1.462534790724398</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.562380151101901</v>
+        <v>1.438760384037162</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.539781430917871</v>
+        <v>1.423942518342799</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.469584865481266</v>
+        <v>1.447688672652802</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.488594508810703</v>
+        <v>1.856077017987442</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.564762190783945</v>
+        <v>1.269160416346621</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.469988310007775</v>
+        <v>1.43827137460627</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.249844116717834</v>
+        <v>1.56268542622429</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.459940483749855</v>
+        <v>1.35394090167104</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.528325784106886</v>
+        <v>1.428610118453645</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.584845889939122</v>
+        <v>1.47134373457591</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.43972158150553</v>
+        <v>1.426200875031317</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.536936990992192</v>
+        <v>1.437374445055793</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.496978000641831</v>
+        <v>1.472210264135658</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.69358497480779</v>
+        <v>1.198300798465134</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.45144054142989</v>
+        <v>1.363983038415273</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.384452990263123</v>
+        <v>1.670068829254161</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.599590009305406</v>
+        <v>1.578053395607128</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.211749533970282</v>
+        <v>1.444208108644921</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.556312929582384</v>
+        <v>1.120923416733475</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.497807933620528</v>
+        <v>1.419670279606109</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.335121029357472</v>
+        <v>1.568008939978833</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.325149789501646</v>
+        <v>1.837192499364163</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.474716918690994</v>
+        <v>1.52239764734251</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.355916884389122</v>
+        <v>1.419204459535981</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.622449811836736</v>
+        <v>1.721636139661649</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.155847046592398</v>
+        <v>1.439648219385149</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.515184776106222</v>
+        <v>1.516468275445144</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.296618394260296</v>
+        <v>1.506844838769368</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.564550415691355</v>
+        <v>1.555354001788582</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.609507006764614</v>
+        <v>1.463486226547803</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.377725294044619</v>
+        <v>1.415544482020151</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.243623851599459</v>
+        <v>1.350217141665929</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.442661449283851</v>
+        <v>1.51429941131828</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.277419092941423</v>
+        <v>1.615605796451382</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.574207525430773</v>
+        <v>1.627316992127538</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.464782639094618</v>
+        <v>1.176051332667861</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.235276618712827</v>
+        <v>1.471485306608706</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.480104805908987</v>
+        <v>1.351777505097235</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.869170707803987</v>
+        <v>1.445295152245819</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.56213448940089</v>
+        <v>1.354304336976232</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.742862723705384</v>
+        <v>1.521072861092493</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.630134244183226</v>
+        <v>1.195160072520545</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.430781605559617</v>
+        <v>1.234586661517803</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.732418962609093</v>
+        <v>1.393038510227045</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.87355047526149</v>
+        <v>1.360695547917748</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.62259042820954</v>
+        <v>1.271768544033216</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.451990265594979</v>
+        <v>1.286738993158898</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.567244272841847</v>
+        <v>1.454143571250301</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.549163770003116</v>
+        <v>1.488024698357102</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.857469000550411</v>
+        <v>1.2954564163962</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.550428353099985</v>
+        <v>1.55093951167275</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.539883359479465</v>
+        <v>1.575586844295789</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.481615658675274</v>
+        <v>1.530576721478261</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.346716014879327</v>
+        <v>1.395698026437983</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.592026674742475</v>
+        <v>1.498564560726608</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.642498911716435</v>
+        <v>1.613674736689133</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.406057049085196</v>
+        <v>1.508144108082652</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.480134970318033</v>
+        <v>1.552904741497676</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.481799978694781</v>
+        <v>1.255763545413799</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.447709854126168</v>
+        <v>1.325892008609146</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.680492328588356</v>
+        <v>1.447561532577222</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.370610265435966</v>
+        <v>1.479726728608367</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.526770572392798</v>
+        <v>1.754781054989809</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.401351910104005</v>
+        <v>1.51582791085906</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.441230464410614</v>
+        <v>1.397066287722369</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.356829340611489</v>
+        <v>1.450090158915448</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.545014502515228</v>
+        <v>1.400383023104485</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.483958307024588</v>
+        <v>1.327269826982596</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.455313418008633</v>
+        <v>1.642836363711495</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.26614736567473</v>
+        <v>1.351993163236911</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.624283604714964</v>
+        <v>1.538548841329521</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.586882478278456</v>
+        <v>1.44438362799637</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.491769234915599</v>
+        <v>1.587894627467306</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.290075606063685</v>
+        <v>1.587410555080208</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.631149425355389</v>
+        <v>1.713509501977225</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.590938018802737</v>
+        <v>1.357738068807894</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.496770332736593</v>
+        <v>1.790541950629058</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.320945994394811</v>
+        <v>1.308130244135746</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.693169096645319</v>
+        <v>1.461885655288913</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.477681278353342</v>
+        <v>1.522330156048638</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.587310183971433</v>
+        <v>1.561127338878827</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.27140965195005</v>
+        <v>1.658894758744502</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.625565333707095</v>
+        <v>1.350548531443244</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.483110838989342</v>
+        <v>1.377257806751152</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.404436980272886</v>
+        <v>1.597689363546746</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.151863236294167</v>
+        <v>1.388133556933984</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.58988990293755</v>
+        <v>1.476344821037036</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.408068252934239</v>
+        <v>1.471964911678724</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.53861562255782</v>
+        <v>1.448226920392049</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.447302113540749</v>
+        <v>1.439390126317012</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.416716716131261</v>
+        <v>1.457444266528568</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.573343927328147</v>
+        <v>1.357419865479214</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.71304244364621</v>
+        <v>1.413032669092285</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.510222693098515</v>
+        <v>1.644548497800971</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.321658888301259</v>
+        <v>1.604519468019608</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.349703987040135</v>
+        <v>1.483672601368798</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.466669474644402</v>
+        <v>1.585977204861195</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.485260055495357</v>
+        <v>1.580940582881149</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.240128242085165</v>
+        <v>1.389651252208197</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.360248577766308</v>
+        <v>1.399045717186913</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.373240232087017</v>
+        <v>1.694035948209689</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.437725945228262</v>
+        <v>1.724891832846307</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.432366475558682</v>
+        <v>1.369150395919664</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.506487679486956</v>
+        <v>1.599159472084607</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.50188451883655</v>
+        <v>1.616406995738653</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.574444674585866</v>
+        <v>1.607265090532456</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>1.578867274184775</v>
+        <v>1.503620647379015</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.388091020821457</v>
+        <v>1.60017668208137</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.400649553738634</v>
+        <v>1.455047240186647</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.592164930041451</v>
+        <v>1.467518234032673</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
   </si>
   <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
+    <t>dog/dog051.jpg</t>
   </si>
   <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>face/face061.jpg</t>
   </si>
   <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
     <t>flower/flower077.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
   </si>
   <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
     <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.773405700091009</v>
+        <v>1.556518494784297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.71129540396626</v>
+        <v>1.465684360238932</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.284143456810291</v>
+        <v>1.556972276198354</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.57688743261991</v>
+        <v>1.358068800693023</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.746117173570349</v>
+        <v>1.447295652081747</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.560648073105571</v>
+        <v>1.335974026718301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.529560696056919</v>
+        <v>1.481782713442504</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.416691391862497</v>
+        <v>1.842001096288399</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.5009824844369</v>
+        <v>1.324454982329933</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.643225654088139</v>
+        <v>1.43002167993906</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.621499070221574</v>
+        <v>1.578442314300599</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.539949945468843</v>
+        <v>1.426989437765261</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.304825937760357</v>
+        <v>1.548108504722618</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.499604971049472</v>
+        <v>1.453920105622738</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.586042282141379</v>
+        <v>1.500508844985463</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.350033149191159</v>
+        <v>1.196735240481441</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.437653603316593</v>
+        <v>1.232334423758722</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.224922038629286</v>
+        <v>1.564793461106387</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.51513224005658</v>
+        <v>1.375468659332616</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.498146194490671</v>
+        <v>1.696412474898279</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.437797185657809</v>
+        <v>1.238245755379354</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.4723300967438</v>
+        <v>1.277837619927076</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.51510744322602</v>
+        <v>1.487546768731294</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.405820508771232</v>
+        <v>1.568756187300594</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.417237073644694</v>
+        <v>1.570040969480338</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.485548316890656</v>
+        <v>1.501643084045271</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.529810290766503</v>
+        <v>1.591779139527157</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.545547519733991</v>
+        <v>1.510043513191451</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.497843997942568</v>
+        <v>1.579555706082229</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.479242705389483</v>
+        <v>1.389133931296559</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.325686864866319</v>
+        <v>1.566749670284842</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1.792040266057767</v>
+        <v>1.652365497734797</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.644432116363718</v>
+        <v>1.327378366664494</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.593504771755868</v>
+        <v>1.60270416260467</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.629090155356553</v>
+        <v>1.611175884675739</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.721040258652395</v>
+        <v>1.500760307230966</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.368738229609859</v>
+        <v>1.576479862083185</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.285879849134444</v>
+        <v>1.122738532123148</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.558596171433636</v>
+        <v>1.346581389951301</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.451442198106937</v>
+        <v>1.62615757091141</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.533430075974147</v>
+        <v>1.441555915675248</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.546931842465896</v>
+        <v>1.315550471946519</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.562671708294643</v>
+        <v>1.838523725368292</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.436836736388474</v>
+        <v>1.410457701482137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.642259975083897</v>
+        <v>1.37337983933555</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.335596427471491</v>
+        <v>1.635897269451553</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.551966313671075</v>
+        <v>1.571276739698658</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.469371500639875</v>
+        <v>1.657739293916102</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.484097202410278</v>
+        <v>1.288509523604147</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.297882693139875</v>
+        <v>1.633344745159765</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.536534035367196</v>
+        <v>1.199482455072937</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.398382335827202</v>
+        <v>1.639698108728837</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.584596416138351</v>
+        <v>1.872495273258831</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.296869800942421</v>
+        <v>1.519827262195084</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.678372017771421</v>
+        <v>1.469178391454115</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.373733087067093</v>
+        <v>1.506526336253776</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.64152781661589</v>
+        <v>1.602467783515715</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.57888840521204</v>
+        <v>1.528852420738109</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.581899183989301</v>
+        <v>1.384502628011666</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.483307722319274</v>
+        <v>1.334563225465711</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.453758176779526</v>
+        <v>1.526050226954039</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1.269707009230691</v>
+        <v>1.385722324180535</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.375938082279228</v>
+        <v>1.577296107116266</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.321014735237173</v>
+        <v>1.609011797277721</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.325194159687109</v>
+        <v>1.518949951694512</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.263483325972464</v>
+        <v>1.685348139399219</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.688215923289346</v>
+        <v>1.59741895821179</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.512384518219073</v>
+        <v>1.530789644174029</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.601565323259616</v>
+        <v>1.473128054904475</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.613965305618194</v>
+        <v>1.506538594233588</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.542937021953158</v>
+        <v>1.47815262880742</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.710806163259572</v>
+        <v>1.300464312032563</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.413380423851491</v>
+        <v>1.687538336578826</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.653711894822404</v>
+        <v>1.461385006001231</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.500980240600361</v>
+        <v>1.632434687461336</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.489085993634135</v>
+        <v>1.575122773149429</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.584574362785565</v>
+        <v>1.672167819452173</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.381389244379438</v>
+        <v>1.616124854988046</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.683663718139075</v>
+        <v>1.518566538151611</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.541056645962552</v>
+        <v>1.46972741570686</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.313425261673045</v>
+        <v>1.385271512231548</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.585780249976755</v>
+        <v>1.78366713185078</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.327804811798963</v>
+        <v>1.256734280711708</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.441850875341835</v>
+        <v>1.519031135453027</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.63389891410979</v>
+        <v>1.538546141705114</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.550400851217714</v>
+        <v>1.657882823772125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.371807418541141</v>
+        <v>1.371827540943357</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.671149592588117</v>
+        <v>1.531032938222044</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.536230789854886</v>
+        <v>1.65567653296831</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.355755249394769</v>
+        <v>1.450506876228665</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.461182398115129</v>
+        <v>1.779068259459494</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.684212782970779</v>
+        <v>1.379877172136546</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.604725172135722</v>
+        <v>1.661994533123542</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.492651272395499</v>
+        <v>1.286642159275011</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.494932746029761</v>
+        <v>1.438740489216327</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.661800788955747</v>
+        <v>1.680012957315812</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.848547606860724</v>
+        <v>1.183659474507463</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.374580323126808</v>
+        <v>1.503858894949446</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.419970708531815</v>
+        <v>1.363871409853965</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.520552741765354</v>
+        <v>1.817873138609352</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.50097844212635</v>
+        <v>1.269520925995258</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.398504256328683</v>
+        <v>1.628045842442006</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.452064902377</v>
+        <v>1.344303514892154</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.695164118865764</v>
+        <v>1.567142713304593</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.409392886973194</v>
+        <v>1.509172328245375</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.379464109512388</v>
+        <v>1.394328353275823</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.690354778928481</v>
+        <v>1.303322769130673</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.54664760093523</v>
+        <v>1.475908601093903</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.692310678319045</v>
+        <v>1.549045554734214</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.521253264275784</v>
+        <v>1.302471170685172</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.576217176320436</v>
+        <v>1.380417057580255</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.451539488572194</v>
+        <v>1.244193728685564</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.313387837267062</v>
+        <v>1.563681740047375</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.334433110882243</v>
+        <v>1.743732974425536</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.521278179117929</v>
+        <v>1.409892988776722</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.410180155993672</v>
+        <v>1.306192524637449</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.375487758416077</v>
+        <v>1.324298736505769</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.620110221044038</v>
+        <v>1.462590904632652</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.578448997671782</v>
+        <v>1.528943260067878</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.680117617846995</v>
+        <v>1.670538628610452</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.33280945581377</v>
+        <v>1.562926874533496</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.372669268342086</v>
+        <v>1.579567435740289</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.424371124429392</v>
+        <v>1.671861411710932</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.361450691538566</v>
+        <v>1.475421890213755</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.329030391268418</v>
+        <v>1.515279442898905</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.27632278199642</v>
+        <v>1.527719070105301</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.194938223189567</v>
+        <v>1.523881416414878</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.544658989627028</v>
+        <v>1.690545134710279</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.359026194400748</v>
+        <v>1.760541913748004</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.453992980787031</v>
+        <v>1.824903843665803</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.476107601852689</v>
+        <v>1.729843091533248</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.608044217157966</v>
+        <v>1.687676472882286</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.704817666669576</v>
+        <v>1.676303288783138</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.560647231319926</v>
+        <v>1.595256503553649</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.330763719223139</v>
+        <v>1.493290406695096</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.337450546652278</v>
+        <v>1.500183492645865</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.643355862910111</v>
+        <v>1.533872712963219</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.810768309307241</v>
+        <v>1.486532169837566</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.509659187643215</v>
+        <v>1.367761823465867</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.319610257070148</v>
+        <v>1.511320762974239</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.298082979631477</v>
+        <v>1.520736361161058</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.512765346132888</v>
+        <v>1.695939548379594</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.356870211656842</v>
+        <v>1.483708584725925</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.644306176104638</v>
+        <v>1.229812212146845</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.290360620612943</v>
+        <v>1.632761136765937</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.462534790724398</v>
+        <v>1.459189973588492</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.438760384037162</v>
+        <v>1.747872012261428</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.423942518342799</v>
+        <v>1.469469356008713</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.447688672652802</v>
+        <v>1.418600944549924</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.856077017987442</v>
+        <v>1.458603788652633</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.269160416346621</v>
+        <v>1.752770409988158</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.43827137460627</v>
+        <v>1.522738946864569</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.56268542622429</v>
+        <v>1.524923941065286</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.35394090167104</v>
+        <v>1.393135401259236</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.428610118453645</v>
+        <v>1.535158533046943</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.47134373457591</v>
+        <v>1.728648839184503</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.426200875031317</v>
+        <v>1.350300907732141</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.437374445055793</v>
+        <v>1.441742414057463</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.472210264135658</v>
+        <v>1.639276708067</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.198300798465134</v>
+        <v>1.546594263442466</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.363983038415273</v>
+        <v>1.562451069084626</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.670068829254161</v>
+        <v>1.500673769698147</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.578053395607128</v>
+        <v>1.461442896480514</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.444208108644921</v>
+        <v>1.723986637198182</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.120923416733475</v>
+        <v>1.53624600946175</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.419670279606109</v>
+        <v>1.720479787037068</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.568008939978833</v>
+        <v>1.657315747292257</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.837192499364163</v>
+        <v>1.454706460281201</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.52239764734251</v>
+        <v>1.69654840093382</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.419204459535981</v>
+        <v>1.561299332923895</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.721636139661649</v>
+        <v>1.52358304820344</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.439648219385149</v>
+        <v>1.592718303356388</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.516468275445144</v>
+        <v>1.620431111093169</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.506844838769368</v>
+        <v>1.240709681489502</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1.555354001788582</v>
+        <v>1.49781052595587</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1.463486226547803</v>
+        <v>1.444358868141029</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.415544482020151</v>
+        <v>1.34986527235888</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.350217141665929</v>
+        <v>1.849546829455407</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.51429941131828</v>
+        <v>1.457370211934716</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.615605796451382</v>
+        <v>1.587236151009571</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.627316992127538</v>
+        <v>1.614301604875934</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.176051332667861</v>
+        <v>1.440141291349926</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.471485306608706</v>
+        <v>1.367504209979057</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.351777505097235</v>
+        <v>1.477630607808145</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.445295152245819</v>
+        <v>1.209579225036524</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.354304336976232</v>
+        <v>1.645976862235249</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.521072861092493</v>
+        <v>1.454450999132433</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.195160072520545</v>
+        <v>1.647713617883812</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.234586661517803</v>
+        <v>1.633711634041944</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.393038510227045</v>
+        <v>1.253794556381433</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>1.360695547917748</v>
+        <v>1.311181075641124</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.271768544033216</v>
+        <v>1.39092279647472</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.286738993158898</v>
+        <v>1.524120351200595</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.454143571250301</v>
+        <v>1.518014979258514</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.488024698357102</v>
+        <v>1.564199693822733</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.2954564163962</v>
+        <v>1.422797813061618</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.55093951167275</v>
+        <v>1.279791483561378</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.575586844295789</v>
+        <v>1.507241595615685</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.530576721478261</v>
+        <v>1.577094195054641</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.395698026437983</v>
+        <v>1.664529767619853</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.498564560726608</v>
+        <v>1.437780738343076</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.613674736689133</v>
+        <v>1.751590542413407</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.508144108082652</v>
+        <v>1.429921792442002</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.552904741497676</v>
+        <v>1.468952118301955</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.255763545413799</v>
+        <v>1.38738925023707</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.325892008609146</v>
+        <v>1.681115283466724</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.447561532577222</v>
+        <v>1.51522525603917</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.479726728608367</v>
+        <v>1.491045510349577</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.754781054989809</v>
+        <v>1.562224020602019</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.51582791085906</v>
+        <v>1.502758496994102</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.397066287722369</v>
+        <v>1.151330489964882</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.450090158915448</v>
+        <v>1.290926409901369</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.400383023104485</v>
+        <v>1.514765925024389</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.327269826982596</v>
+        <v>1.772069890092217</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.642836363711495</v>
+        <v>1.328495983063863</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.351993163236911</v>
+        <v>1.488979921904644</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.538548841329521</v>
+        <v>1.6221770446206</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.44438362799637</v>
+        <v>1.631811501140874</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.587894627467306</v>
+        <v>1.600937167699142</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.587410555080208</v>
+        <v>1.317835363274384</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.713509501977225</v>
+        <v>1.64568236209913</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.357738068807894</v>
+        <v>1.426372566253968</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.790541950629058</v>
+        <v>1.655683264971514</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.308130244135746</v>
+        <v>1.40154214115388</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.461885655288913</v>
+        <v>1.32079293898222</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.522330156048638</v>
+        <v>1.515851561391761</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.561127338878827</v>
+        <v>1.542436659807411</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.658894758744502</v>
+        <v>1.659577845579218</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.350548531443244</v>
+        <v>1.610588711519667</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.377257806751152</v>
+        <v>1.433139688410029</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.597689363546746</v>
+        <v>1.531427158095107</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.388133556933984</v>
+        <v>1.549877882822364</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.476344821037036</v>
+        <v>1.421963086188479</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.471964911678724</v>
+        <v>1.800737246690604</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.448226920392049</v>
+        <v>1.576381218796235</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.439390126317012</v>
+        <v>1.498049618217465</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.457444266528568</v>
+        <v>1.58001955405335</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.357419865479214</v>
+        <v>1.478577552175705</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.413032669092285</v>
+        <v>1.578804739834565</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.644548497800971</v>
+        <v>1.475882015430553</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.604519468019608</v>
+        <v>1.598332959960646</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.483672601368798</v>
+        <v>1.461040831700241</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.585977204861195</v>
+        <v>1.728292418235545</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.580940582881149</v>
+        <v>1.524059682682174</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.389651252208197</v>
+        <v>1.339723290724814</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.399045717186913</v>
+        <v>1.400475457250205</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.694035948209689</v>
+        <v>1.425368123490898</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.724891832846307</v>
+        <v>1.523766146087357</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.369150395919664</v>
+        <v>1.273647281642276</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.599159472084607</v>
+        <v>1.551325604172267</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.616406995738653</v>
+        <v>1.400694847570126</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.607265090532456</v>
+        <v>1.468875755748781</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.503620647379015</v>
+        <v>1.268213472550229</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.60017668208137</v>
+        <v>1.612931812993126</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.455047240186647</v>
+        <v>1.577837100789226</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.467518234032673</v>
+        <v>1.58548457866594</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
+    <t>flower</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
   </si>
   <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
   </si>
   <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
   </si>
   <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>flower/flower063.jpg</t>
   </si>
   <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
   </si>
   <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
     <t>face/face083.jpg</t>
   </si>
   <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
     <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.556518494784297</v>
+        <v>1.563250556779024</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.465684360238932</v>
+        <v>1.468209520151069</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.556972276198354</v>
+        <v>1.329395600155574</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.358068800693023</v>
+        <v>1.482431729217918</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.447295652081747</v>
+        <v>1.689260503922459</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.335974026718301</v>
+        <v>1.410453453764014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.481782713442504</v>
+        <v>1.574369205343373</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.842001096288399</v>
+        <v>1.490098504524783</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.324454982329933</v>
+        <v>1.305655664808605</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.43002167993906</v>
+        <v>1.480294010948182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.578442314300599</v>
+        <v>1.551546966710834</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.426989437765261</v>
+        <v>1.609619541984345</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.548108504722618</v>
+        <v>1.707463207576541</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.453920105622738</v>
+        <v>1.477811970069053</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.500508844985463</v>
+        <v>1.298258574698677</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.196735240481441</v>
+        <v>1.352683220635415</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.232334423758722</v>
+        <v>1.3652408756824</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.564793461106387</v>
+        <v>1.155679889968505</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.375468659332616</v>
+        <v>1.57543643872295</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.696412474898279</v>
+        <v>1.68011882978256</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.238245755379354</v>
+        <v>1.500756946771954</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.277837619927076</v>
+        <v>1.701281859664961</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.487546768731294</v>
+        <v>1.592800093326806</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.568756187300594</v>
+        <v>1.692680239022285</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.570040969480338</v>
+        <v>1.234044830209836</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.501643084045271</v>
+        <v>1.44045947821017</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.591779139527157</v>
+        <v>1.409134507119953</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.510043513191451</v>
+        <v>1.679105961035026</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.579555706082229</v>
+        <v>1.306511602472433</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.389133931296559</v>
+        <v>1.370916733425191</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.566749670284842</v>
+        <v>1.303696229622171</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1.652365497734797</v>
+        <v>1.739213066022505</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.327378366664494</v>
+        <v>1.287802936056496</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.60270416260467</v>
+        <v>1.478323148825263</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.611175884675739</v>
+        <v>1.595867983374093</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.500760307230966</v>
+        <v>1.52067846317498</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.576479862083185</v>
+        <v>1.435740190818972</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.122738532123148</v>
+        <v>1.301052360440281</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.346581389951301</v>
+        <v>1.619607590828737</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.62615757091141</v>
+        <v>1.425165342318151</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.441555915675248</v>
+        <v>1.455591565618284</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.315550471946519</v>
+        <v>1.367933005036945</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.838523725368292</v>
+        <v>1.370089369154584</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.410457701482137</v>
+        <v>1.674986782225218</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.37337983933555</v>
+        <v>1.577854014147208</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.635897269451553</v>
+        <v>1.685670053827727</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.571276739698658</v>
+        <v>1.546327167484891</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.657739293916102</v>
+        <v>1.374537689747747</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.288509523604147</v>
+        <v>1.186951542874386</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.633344745159765</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.199482455072937</v>
+        <v>1.357821095929232</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.639698108728837</v>
+        <v>1.737182362275783</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.872495273258831</v>
+        <v>1.620346017622143</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.519827262195084</v>
+        <v>1.475014150656935</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.469178391454115</v>
+        <v>1.591955351134921</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.506526336253776</v>
+        <v>1.668122621828095</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.602467783515715</v>
+        <v>1.211801601710624</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.528852420738109</v>
+        <v>1.698990436248482</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.384502628011666</v>
+        <v>1.619788267304744</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.334563225465711</v>
+        <v>1.544074857138591</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.526050226954039</v>
+        <v>1.358862128400062</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.385722324180535</v>
+        <v>1.514661762474911</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.577296107116266</v>
+        <v>1.597527484032091</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.609011797277721</v>
+        <v>1.103139868122102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.518949951694512</v>
+        <v>1.31996993733512</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.685348139399219</v>
+        <v>1.478021131481335</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.59741895821179</v>
+        <v>1.493903584189765</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.530789644174029</v>
+        <v>1.776668650962212</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.473128054904475</v>
+        <v>1.457007290873199</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.506538594233588</v>
+        <v>1.382513961165726</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.47815262880742</v>
+        <v>1.435469548826947</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.300464312032563</v>
+        <v>1.506273505839743</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.687538336578826</v>
+        <v>1.593652176843944</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.461385006001231</v>
+        <v>1.645468238602715</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.632434687461336</v>
+        <v>1.474725316895928</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.575122773149429</v>
+        <v>1.66049779279007</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.672167819452173</v>
+        <v>1.493610577854699</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.616124854988046</v>
+        <v>1.365139381777046</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.518566538151611</v>
+        <v>1.18476625362607</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.46972741570686</v>
+        <v>1.725212508724168</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.385271512231548</v>
+        <v>1.585381567577006</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.78366713185078</v>
+        <v>1.314009654359093</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.256734280711708</v>
+        <v>1.448694799032447</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.519031135453027</v>
+        <v>1.577083396261552</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.538546141705114</v>
+        <v>1.731470066390896</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.657882823772125</v>
+        <v>1.510755001649132</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.371827540943357</v>
+        <v>1.595226935443327</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.531032938222044</v>
+        <v>1.104521115055267</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.65567653296831</v>
+        <v>1.447965332978296</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.450506876228665</v>
+        <v>1.128733057260381</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.779068259459494</v>
+        <v>1.503927488418947</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.379877172136546</v>
+        <v>1.301150467215797</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.661994533123542</v>
+        <v>1.264011583383476</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.286642159275011</v>
+        <v>1.523043876912601</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.438740489216327</v>
+        <v>1.604651902588996</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.680012957315812</v>
+        <v>1.410244604484103</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.183659474507463</v>
+        <v>1.586109247105953</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.503858894949446</v>
+        <v>1.44846432918942</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.363871409853965</v>
+        <v>1.871854106053809</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.817873138609352</v>
+        <v>1.568750426385355</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.269520925995258</v>
+        <v>1.44828328028368</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.628045842442006</v>
+        <v>1.355076757806051</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.344303514892154</v>
+        <v>1.753425620695071</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.567142713304593</v>
+        <v>1.42501856811157</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.509172328245375</v>
+        <v>1.701671697346268</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.394328353275823</v>
+        <v>1.379397902282554</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.303322769130673</v>
+        <v>1.268532384102079</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.475908601093903</v>
+        <v>1.771835415876701</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.549045554734214</v>
+        <v>1.665453968769918</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.302471170685172</v>
+        <v>1.661864696789864</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.380417057580255</v>
+        <v>1.579312342738941</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.244193728685564</v>
+        <v>1.669037637227959</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.563681740047375</v>
+        <v>1.577187513957553</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.743732974425536</v>
+        <v>1.590050882574866</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.409892988776722</v>
+        <v>1.416893469472763</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.306192524637449</v>
+        <v>1.56898523340335</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.324298736505769</v>
+        <v>1.398074747410329</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.462590904632652</v>
+        <v>1.514878120805906</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.528943260067878</v>
+        <v>1.53214568606088</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.670538628610452</v>
+        <v>1.541472593376916</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.562926874533496</v>
+        <v>1.614579276983835</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.579567435740289</v>
+        <v>1.712070608653321</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.671861411710932</v>
+        <v>1.450354529995149</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.475421890213755</v>
+        <v>1.735958751976668</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.515279442898905</v>
+        <v>1.966128563440115</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.527719070105301</v>
+        <v>1.402841800368754</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.523881416414878</v>
+        <v>1.633258838500383</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.690545134710279</v>
+        <v>1.398490419920704</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.760541913748004</v>
+        <v>1.41411004439001</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.824903843665803</v>
+        <v>1.62380359462726</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.729843091533248</v>
+        <v>1.653545314456386</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.687676472882286</v>
+        <v>1.870049751061025</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.676303288783138</v>
+        <v>1.307247775462688</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.595256503553649</v>
+        <v>1.33634304621722</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.493290406695096</v>
+        <v>1.708908963287657</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.500183492645865</v>
+        <v>1.565220591736161</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.533872712963219</v>
+        <v>1.483315210513171</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.486532169837566</v>
+        <v>1.654984866868352</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.367761823465867</v>
+        <v>1.462103610684925</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.511320762974239</v>
+        <v>1.629120890244414</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.520736361161058</v>
+        <v>1.479604708338119</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.695939548379594</v>
+        <v>1.76100187610683</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.483708584725925</v>
+        <v>1.647222983614862</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.229812212146845</v>
+        <v>1.585509634040106</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.632761136765937</v>
+        <v>1.572687117305174</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.459189973588492</v>
+        <v>1.391319049641908</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.747872012261428</v>
+        <v>1.49422263792724</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.469469356008713</v>
+        <v>1.334345385028204</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.418600944549924</v>
+        <v>1.413842852894911</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.458603788652633</v>
+        <v>1.407607014880522</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.752770409988158</v>
+        <v>1.685980966219331</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.522738946864569</v>
+        <v>1.207118003975556</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.524923941065286</v>
+        <v>1.710562856477291</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.393135401259236</v>
+        <v>1.48169369513937</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.535158533046943</v>
+        <v>1.713819893825159</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.728648839184503</v>
+        <v>1.510336645075733</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.350300907732141</v>
+        <v>1.351654053491035</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.441742414057463</v>
+        <v>1.426574182260419</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.639276708067</v>
+        <v>1.225565909860218</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.546594263442466</v>
+        <v>1.338390711297734</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.562451069084626</v>
+        <v>1.364893807701693</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.500673769698147</v>
+        <v>1.590037333346785</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.461442896480514</v>
+        <v>1.464993256886583</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.723986637198182</v>
+        <v>1.350119428028505</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.53624600946175</v>
+        <v>1.649576657615519</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.720479787037068</v>
+        <v>1.765246993228282</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.657315747292257</v>
+        <v>1.494100015238674</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.454706460281201</v>
+        <v>1.748599335933838</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.69654840093382</v>
+        <v>1.501156119886499</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.561299332923895</v>
+        <v>1.480846067860012</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.52358304820344</v>
+        <v>1.231459499087807</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.592718303356388</v>
+        <v>1.396692379761888</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.620431111093169</v>
+        <v>1.614495439891175</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.240709681489502</v>
+        <v>1.249635668392459</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.49781052595587</v>
+        <v>1.470991363455623</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.444358868141029</v>
+        <v>1.538268492448353</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.34986527235888</v>
+        <v>1.402709461555281</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.849546829455407</v>
+        <v>1.534213361901043</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.457370211934716</v>
+        <v>1.251222865102716</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.587236151009571</v>
+        <v>1.349869597287429</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.614301604875934</v>
+        <v>1.540373651517322</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.440141291349926</v>
+        <v>1.599612331340059</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.367504209979057</v>
+        <v>1.529779136775618</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.477630607808145</v>
+        <v>1.438845354157453</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.209579225036524</v>
+        <v>1.541417806856841</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.645976862235249</v>
+        <v>1.633806519240683</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.454450999132433</v>
+        <v>1.404394301742704</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.647713617883812</v>
+        <v>1.302530841401017</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.633711634041944</v>
+        <v>1.643990660089721</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.253794556381433</v>
+        <v>1.707958145435974</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.311181075641124</v>
+        <v>1.587429644138188</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.39092279647472</v>
+        <v>1.679055711470642</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.524120351200595</v>
+        <v>1.63164170848101</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.518014979258514</v>
+        <v>1.281691874653364</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.564199693822733</v>
+        <v>1.548601802992051</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.422797813061618</v>
+        <v>1.550117438719505</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.279791483561378</v>
+        <v>1.293682487502841</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.507241595615685</v>
+        <v>1.346827047356795</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.577094195054641</v>
+        <v>1.426763857226519</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.664529767619853</v>
+        <v>1.562175134614416</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.437780738343076</v>
+        <v>1.51140052596279</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.751590542413407</v>
+        <v>1.455166896258328</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.429921792442002</v>
+        <v>1.379383774002152</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.468952118301955</v>
+        <v>1.352132874257066</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.38738925023707</v>
+        <v>1.621905362375589</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.681115283466724</v>
+        <v>1.428386861824307</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.51522525603917</v>
+        <v>1.624174313494831</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.491045510349577</v>
+        <v>1.546057793377108</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.562224020602019</v>
+        <v>1.548865483390201</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.502758496994102</v>
+        <v>1.528023140401342</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.151330489964882</v>
+        <v>1.807319943416493</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.290926409901369</v>
+        <v>1.624616119249313</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.514765925024389</v>
+        <v>1.361776722981631</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.772069890092217</v>
+        <v>1.56419157602947</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.328495983063863</v>
+        <v>1.512043928750564</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.488979921904644</v>
+        <v>1.46653188011199</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.6221770446206</v>
+        <v>1.593538682126778</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.631811501140874</v>
+        <v>1.469389962953979</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.600937167699142</v>
+        <v>1.558717861305829</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.317835363274384</v>
+        <v>1.404466387109639</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.64568236209913</v>
+        <v>1.385143056735161</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.426372566253968</v>
+        <v>1.400903828718756</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.655683264971514</v>
+        <v>1.387005045737757</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.40154214115388</v>
+        <v>1.4589672887787</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.32079293898222</v>
+        <v>1.211991841866419</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.515851561391761</v>
+        <v>1.295321630132478</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.542436659807411</v>
+        <v>1.33244431424055</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.659577845579218</v>
+        <v>1.689923490065002</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.610588711519667</v>
+        <v>1.696184823376846</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.433139688410029</v>
+        <v>1.749858748124873</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.531427158095107</v>
+        <v>1.630207158111563</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.549877882822364</v>
+        <v>1.549822271971111</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.421963086188479</v>
+        <v>1.415520588133762</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.800737246690604</v>
+        <v>1.432625213108474</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.576381218796235</v>
+        <v>1.358842789825135</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.498049618217465</v>
+        <v>1.402156629055149</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.58001955405335</v>
+        <v>1.338719992385702</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.478577552175705</v>
+        <v>1.578896114716543</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.578804739834565</v>
+        <v>1.657830675969722</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.475882015430553</v>
+        <v>1.44511583042417</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.598332959960646</v>
+        <v>1.274547961290117</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.461040831700241</v>
+        <v>1.666494723724741</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.728292418235545</v>
+        <v>1.249706052284745</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.524059682682174</v>
+        <v>1.47383989626049</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.339723290724814</v>
+        <v>1.488255629166173</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.400475457250205</v>
+        <v>1.365100717696603</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.425368123490898</v>
+        <v>1.408586597402839</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.523766146087357</v>
+        <v>1.426967338561552</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.273647281642276</v>
+        <v>1.749214323476938</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.551325604172267</v>
+        <v>1.514146894814977</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.400694847570126</v>
+        <v>1.723600620779729</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.468875755748781</v>
+        <v>1.533620314623712</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.268213472550229</v>
+        <v>1.847966003460222</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.612931812993126</v>
+        <v>1.434871363418837</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.577837100789226</v>
+        <v>1.23196436254411</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.58548457866594</v>
+        <v>1.455317739324682</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
+    <t>house/house034.jpg</t>
   </si>
   <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
   </si>
   <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.563250556779024</v>
+        <v>1.669144843074951</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.468209520151069</v>
+        <v>1.555909364189358</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.329395600155574</v>
+        <v>1.496728441254278</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.482431729217918</v>
+        <v>1.076919167501636</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.689260503922459</v>
+        <v>1.726527084649383</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.410453453764014</v>
+        <v>1.499480532058198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.574369205343373</v>
+        <v>1.547765144848016</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.490098504524783</v>
+        <v>1.606901472148589</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.305655664808605</v>
+        <v>1.424051439023839</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.480294010948182</v>
+        <v>1.494155623567692</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.551546966710834</v>
+        <v>1.511386806391753</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.609619541984345</v>
+        <v>1.397416532843896</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.707463207576541</v>
+        <v>1.810159483703011</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.477811970069053</v>
+        <v>1.516114881038294</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.298258574698677</v>
+        <v>1.282315672524323</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.352683220635415</v>
+        <v>1.543603200048262</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.3652408756824</v>
+        <v>1.662748100682796</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.155679889968505</v>
+        <v>1.456688976145925</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.57543643872295</v>
+        <v>1.56043864611673</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.68011882978256</v>
+        <v>1.641459485840263</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.500756946771954</v>
+        <v>1.362476620825752</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.701281859664961</v>
+        <v>1.50222518212533</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.592800093326806</v>
+        <v>1.439474903737292</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.692680239022285</v>
+        <v>1.447458729917927</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.234044830209836</v>
+        <v>1.406776830007796</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.44045947821017</v>
+        <v>1.760632471005622</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.409134507119953</v>
+        <v>1.720077031748058</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.679105961035026</v>
+        <v>1.680189740107235</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.306511602472433</v>
+        <v>1.606348085100762</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.370916733425191</v>
+        <v>1.647216523268136</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.303696229622171</v>
+        <v>1.639624483675448</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.739213066022505</v>
+        <v>1.694012815959812</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.287802936056496</v>
+        <v>1.511607254204672</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.478323148825263</v>
+        <v>1.516442089033988</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.595867983374093</v>
+        <v>1.540147039793615</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.52067846317498</v>
+        <v>1.852962341358886</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.435740190818972</v>
+        <v>1.681177876352454</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.301052360440281</v>
+        <v>1.420591210310773</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.619607590828737</v>
+        <v>1.684045726759103</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.425165342318151</v>
+        <v>1.595952685823107</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.455591565618284</v>
+        <v>1.464954742483074</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.367933005036945</v>
+        <v>1.573224202989973</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.370089369154584</v>
+        <v>1.338290559000917</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.674986782225218</v>
+        <v>1.357922692415092</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1.577854014147208</v>
+        <v>1.688438795451759</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.685670053827727</v>
+        <v>1.551176139333762</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.546327167484891</v>
+        <v>1.376645185772226</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.374537689747747</v>
+        <v>1.424939400464862</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.186951542874386</v>
+        <v>1.367175310037003</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1.600407838154051</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.357821095929232</v>
+        <v>1.470567206209382</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.737182362275783</v>
+        <v>1.575932943722308</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.620346017622143</v>
+        <v>1.498085840816714</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.475014150656935</v>
+        <v>1.632065355610239</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.591955351134921</v>
+        <v>1.567973686427657</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.668122621828095</v>
+        <v>1.541866949515146</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.211801601710624</v>
+        <v>1.54437702346689</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.698990436248482</v>
+        <v>1.51890881644003</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.619788267304744</v>
+        <v>1.36729723775551</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.544074857138591</v>
+        <v>1.523291643442571</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.358862128400062</v>
+        <v>1.417648382778414</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.514661762474911</v>
+        <v>1.432107434933733</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.597527484032091</v>
+        <v>1.688151818405059</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.103139868122102</v>
+        <v>1.555375565673363</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.31996993733512</v>
+        <v>1.574759799546605</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.478021131481335</v>
+        <v>1.602837077005156</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.493903584189765</v>
+        <v>1.280324976940197</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.776668650962212</v>
+        <v>1.488026722406787</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.457007290873199</v>
+        <v>1.405150900026013</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.382513961165726</v>
+        <v>1.430555506163315</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.435469548826947</v>
+        <v>1.418473171498219</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.506273505839743</v>
+        <v>1.753931572101814</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.593652176843944</v>
+        <v>1.720270367827567</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.645468238602715</v>
+        <v>1.167811693596123</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.474725316895928</v>
+        <v>1.314412807447729</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.66049779279007</v>
+        <v>1.435914894637517</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.493610577854699</v>
+        <v>1.429201694509408</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.365139381777046</v>
+        <v>1.559913630644407</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.18476625362607</v>
+        <v>1.841874264458214</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.725212508724168</v>
+        <v>1.497187794745298</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.585381567577006</v>
+        <v>1.711784826851869</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.314009654359093</v>
+        <v>1.564131546666389</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.448694799032447</v>
+        <v>1.636223566227448</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.577083396261552</v>
+        <v>1.336960034991964</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.731470066390896</v>
+        <v>1.543416298224054</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.510755001649132</v>
+        <v>1.581601073184587</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.595226935443327</v>
+        <v>1.434518617455868</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.104521115055267</v>
+        <v>1.397606963986682</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.447965332978296</v>
+        <v>1.403464626399912</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.128733057260381</v>
+        <v>1.528752971304773</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.503927488418947</v>
+        <v>1.515862256306403</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.301150467215797</v>
+        <v>1.38565315445707</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1.264011583383476</v>
+        <v>1.475903490510921</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.523043876912601</v>
+        <v>1.511000971468984</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.604651902588996</v>
+        <v>1.560865397134813</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.410244604484103</v>
+        <v>1.354976751110411</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.586109247105953</v>
+        <v>1.397657525632911</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.44846432918942</v>
+        <v>1.515554881782576</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.871854106053809</v>
+        <v>1.425337402431805</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.568750426385355</v>
+        <v>1.459389067125731</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.44828328028368</v>
+        <v>1.353021021847843</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.355076757806051</v>
+        <v>1.135427301819349</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.753425620695071</v>
+        <v>1.52318225283567</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.42501856811157</v>
+        <v>1.483714907703905</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.701671697346268</v>
+        <v>1.542315388828176</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.379397902282554</v>
+        <v>1.542785019748334</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.268532384102079</v>
+        <v>1.437990154440536</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.771835415876701</v>
+        <v>1.707034918418838</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.665453968769918</v>
+        <v>1.522596409075431</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.661864696789864</v>
+        <v>1.308907074787223</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.579312342738941</v>
+        <v>1.586847671021417</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.669037637227959</v>
+        <v>1.373147582249516</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.577187513957553</v>
+        <v>1.272233886760349</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.590050882574866</v>
+        <v>1.488577013022686</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.416893469472763</v>
+        <v>1.530470342529557</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.56898523340335</v>
+        <v>1.530725687644543</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.398074747410329</v>
+        <v>1.483174168374403</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.514878120805906</v>
+        <v>1.605987635522415</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.53214568606088</v>
+        <v>1.468088361035648</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.541472593376916</v>
+        <v>1.195234383235697</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.614579276983835</v>
+        <v>1.145397859559987</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.712070608653321</v>
+        <v>1.423249310270133</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.450354529995149</v>
+        <v>1.417614524729039</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.735958751976668</v>
+        <v>1.711094259021594</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.966128563440115</v>
+        <v>1.409286283914175</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.402841800368754</v>
+        <v>1.527756688467638</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.633258838500383</v>
+        <v>1.331312503038257</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.398490419920704</v>
+        <v>1.7580359475256</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.41411004439001</v>
+        <v>1.510938527184686</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.62380359462726</v>
+        <v>1.481933375246778</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.653545314456386</v>
+        <v>1.296650636280541</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.870049751061025</v>
+        <v>1.324163146907422</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.307247775462688</v>
+        <v>1.272898932189288</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.33634304621722</v>
+        <v>1.249846838398743</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.708908963287657</v>
+        <v>1.548971866675432</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.565220591736161</v>
+        <v>1.167284190002714</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.483315210513171</v>
+        <v>1.507407754310566</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.654984866868352</v>
+        <v>1.470610956270698</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.462103610684925</v>
+        <v>1.474857959171376</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.629120890244414</v>
+        <v>1.605363324817424</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.479604708338119</v>
+        <v>1.472767223521793</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.76100187610683</v>
+        <v>1.433988485150893</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.647222983614862</v>
+        <v>1.266753757119796</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.585509634040106</v>
+        <v>1.41673252761326</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.572687117305174</v>
+        <v>1.640350601814491</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.391319049641908</v>
+        <v>1.655392262708322</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.49422263792724</v>
+        <v>1.533592926327338</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.334345385028204</v>
+        <v>1.609150413776305</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.413842852894911</v>
+        <v>1.459314978415301</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.407607014880522</v>
+        <v>1.336882264147954</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.685980966219331</v>
+        <v>1.571809863147371</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.207118003975556</v>
+        <v>1.331483101989648</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.710562856477291</v>
+        <v>1.625155994319371</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.48169369513937</v>
+        <v>1.467731935535631</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.713819893825159</v>
+        <v>1.472880028555296</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.510336645075733</v>
+        <v>1.693242053760684</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.351654053491035</v>
+        <v>1.220945883675077</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.426574182260419</v>
+        <v>1.80393915145665</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.225565909860218</v>
+        <v>1.474456795554387</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.338390711297734</v>
+        <v>1.509022568782399</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.364893807701693</v>
+        <v>1.461939807012274</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.590037333346785</v>
+        <v>1.671258564064148</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.464993256886583</v>
+        <v>1.604084741059423</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.350119428028505</v>
+        <v>1.446231103270395</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.649576657615519</v>
+        <v>1.419952289370636</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.765246993228282</v>
+        <v>1.642599022860439</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.494100015238674</v>
+        <v>1.512055611248198</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.748599335933838</v>
+        <v>1.626770406906437</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.501156119886499</v>
+        <v>1.648241451031543</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.480846067860012</v>
+        <v>1.521186072354424</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.231459499087807</v>
+        <v>1.595515298073676</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.396692379761888</v>
+        <v>1.557391586821653</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.614495439891175</v>
+        <v>1.353445423999313</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.249635668392459</v>
+        <v>1.506871551888256</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.470991363455623</v>
+        <v>1.81000253193804</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.538268492448353</v>
+        <v>1.59525746831284</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.402709461555281</v>
+        <v>1.362007448662272</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.534213361901043</v>
+        <v>1.329401309207022</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.251222865102716</v>
+        <v>1.417115818134426</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.349869597287429</v>
+        <v>1.58142521908036</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.540373651517322</v>
+        <v>1.159192046313358</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.599612331340059</v>
+        <v>1.419955405824083</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.529779136775618</v>
+        <v>1.567318597324161</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.438845354157453</v>
+        <v>1.739857060549071</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.541417806856841</v>
+        <v>1.594288068834035</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.633806519240683</v>
+        <v>1.177558015014005</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.404394301742704</v>
+        <v>1.477169979874711</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.302530841401017</v>
+        <v>1.702180745424574</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.643990660089721</v>
+        <v>1.428162393894939</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.707958145435974</v>
+        <v>1.5434828842335</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.587429644138188</v>
+        <v>1.232333715211831</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.679055711470642</v>
+        <v>1.379684405794634</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.63164170848101</v>
+        <v>1.445445626655064</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.281691874653364</v>
+        <v>1.57918876018561</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.548601802992051</v>
+        <v>1.551985944584229</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.550117438719505</v>
+        <v>1.338726827544823</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.293682487502841</v>
+        <v>1.597734246443373</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.346827047356795</v>
+        <v>1.52754768912736</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.426763857226519</v>
+        <v>1.597825719275843</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.562175134614416</v>
+        <v>1.461344729301831</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.51140052596279</v>
+        <v>1.628189145462062</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.455166896258328</v>
+        <v>1.459817719206196</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.379383774002152</v>
+        <v>1.627064582362011</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.352132874257066</v>
+        <v>1.63548704101108</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.621905362375589</v>
+        <v>1.455325489020562</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.428386861824307</v>
+        <v>1.923185549651615</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.624174313494831</v>
+        <v>1.492310204405576</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.546057793377108</v>
+        <v>1.506309391175104</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.548865483390201</v>
+        <v>1.243979697314935</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.528023140401342</v>
+        <v>1.824540352780393</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.807319943416493</v>
+        <v>1.453861620737373</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.624616119249313</v>
+        <v>1.57704622204142</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.361776722981631</v>
+        <v>1.444908080375297</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1.56419157602947</v>
+        <v>1.498475550136079</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.512043928750564</v>
+        <v>1.454111377913953</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.46653188011199</v>
+        <v>1.350281948644932</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.593538682126778</v>
+        <v>1.41479218124885</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.469389962953979</v>
+        <v>1.464805650530887</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.558717861305829</v>
+        <v>1.580830505389068</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.404466387109639</v>
+        <v>1.312631196355943</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.385143056735161</v>
+        <v>1.62055806861993</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.400903828718756</v>
+        <v>1.583861456563192</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.387005045737757</v>
+        <v>1.634477786531261</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.4589672887787</v>
+        <v>1.397785569646368</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.211991841866419</v>
+        <v>1.666387548559956</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.295321630132478</v>
+        <v>1.615155616385511</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.33244431424055</v>
+        <v>1.519827048310858</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.689923490065002</v>
+        <v>1.276461896234773</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.696184823376846</v>
+        <v>1.423392060299872</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.749858748124873</v>
+        <v>1.36262418205698</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.630207158111563</v>
+        <v>1.472400754312611</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.549822271971111</v>
+        <v>1.646699799308366</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.415520588133762</v>
+        <v>1.383591764055278</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.432625213108474</v>
+        <v>1.455759676630692</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.358842789825135</v>
+        <v>1.631232334231797</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.402156629055149</v>
+        <v>1.509831734623087</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.338719992385702</v>
+        <v>1.361959340866146</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.578896114716543</v>
+        <v>1.411910956842361</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.657830675969722</v>
+        <v>1.424564690403883</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.44511583042417</v>
+        <v>1.729457552311521</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.274547961290117</v>
+        <v>1.558851667772078</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.666494723724741</v>
+        <v>1.630078589044911</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.249706052284745</v>
+        <v>1.585866815057555</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.47383989626049</v>
+        <v>1.635997828831021</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.488255629166173</v>
+        <v>1.53110940263873</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.365100717696603</v>
+        <v>1.502735870089448</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.408586597402839</v>
+        <v>1.607171549365026</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.426967338561552</v>
+        <v>1.287879095816177</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.749214323476938</v>
+        <v>1.659882148814778</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.514146894814977</v>
+        <v>1.414605115638877</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.723600620779729</v>
+        <v>1.398095213309935</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.533620314623712</v>
+        <v>1.753571073231873</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.847966003460222</v>
+        <v>1.514997997778281</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.434871363418837</v>
+        <v>1.566102209222291</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.23196436254411</v>
+        <v>1.497720109422781</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.455317739324682</v>
+        <v>1.496528782511483</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/17_localizer.xlsx
+++ b/sequences/17_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
+    <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
   </si>
   <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
   </si>
   <si>
     <t>house/house081.jpg</t>
   </si>
   <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>dog/dog080.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
   </si>
   <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
     <t>flower/flower085.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.669144843074951</v>
+        <v>1.544920792190372</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.555909364189358</v>
+        <v>1.568136460421921</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.496728441254278</v>
+        <v>1.330494830348736</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.076919167501636</v>
+        <v>1.47417246235026</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.726527084649383</v>
+        <v>1.540893531343803</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.499480532058198</v>
+        <v>1.38407088993828</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.547765144848016</v>
+        <v>1.353030866747752</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.606901472148589</v>
+        <v>1.794675505960928</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.424051439023839</v>
+        <v>1.495582118338094</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.494155623567692</v>
+        <v>1.234818470529918</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.511386806391753</v>
+        <v>1.587269687999879</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.397416532843896</v>
+        <v>1.422686685015404</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.810159483703011</v>
+        <v>1.429910804071454</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.516114881038294</v>
+        <v>1.492551939328988</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.282315672524323</v>
+        <v>1.631081521113248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.543603200048262</v>
+        <v>1.44267204448064</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.662748100682796</v>
+        <v>1.599736716250422</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.456688976145925</v>
+        <v>1.552903492109498</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.56043864611673</v>
+        <v>1.578795754964814</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.641459485840263</v>
+        <v>1.573798560276473</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.362476620825752</v>
+        <v>1.390989228766734</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.50222518212533</v>
+        <v>1.425706921921908</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.439474903737292</v>
+        <v>1.477842573231827</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.447458729917927</v>
+        <v>1.771971954359665</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.406776830007796</v>
+        <v>1.596291172616703</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.760632471005622</v>
+        <v>1.376218037081236</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.720077031748058</v>
+        <v>1.272228166935571</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.680189740107235</v>
+        <v>1.37887986541467</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.606348085100762</v>
+        <v>1.47256137738656</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.647216523268136</v>
+        <v>1.606806958357687</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.639624483675448</v>
+        <v>1.433612759315606</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.694012815959812</v>
+        <v>1.60488260917208</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.511607254204672</v>
+        <v>1.344446518513194</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.516442089033988</v>
+        <v>1.491967934565502</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.540147039793615</v>
+        <v>1.590123953372316</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.852962341358886</v>
+        <v>1.573576330851044</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.681177876352454</v>
+        <v>1.874113111379496</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.420591210310773</v>
+        <v>1.179927009008354</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.684045726759103</v>
+        <v>1.597461527497259</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.595952685823107</v>
+        <v>1.513105883507209</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.464954742483074</v>
+        <v>1.505443860795693</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.573224202989973</v>
+        <v>1.439639840300652</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.338290559000917</v>
+        <v>1.493676912733997</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.357922692415092</v>
+        <v>1.464080307751746</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.688438795451759</v>
+        <v>1.845689565964327</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.551176139333762</v>
+        <v>1.451814922312692</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.376645185772226</v>
+        <v>1.371717995850905</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.424939400464862</v>
+        <v>1.596750063966527</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.367175310037003</v>
+        <v>1.519401838195576</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.600407838154051</v>
+        <v>1.717902527081298</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.470567206209382</v>
+        <v>1.452828009219945</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.575932943722308</v>
+        <v>1.510500583012912</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.498085840816714</v>
+        <v>1.338188096803861</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.632065355610239</v>
+        <v>1.431057621424552</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.567973686427657</v>
+        <v>1.713050941875853</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.541866949515146</v>
+        <v>1.670703353340664</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.54437702346689</v>
+        <v>1.241042795680833</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.51890881644003</v>
+        <v>1.487044116297062</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.36729723775551</v>
+        <v>1.433103485387531</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1.523291643442571</v>
+        <v>1.481114646829807</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.417648382778414</v>
+        <v>1.612021319440758</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.432107434933733</v>
+        <v>1.775729001781232</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.688151818405059</v>
+        <v>1.386182344558902</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.555375565673363</v>
+        <v>1.794797492866908</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.574759799546605</v>
+        <v>1.370739300433318</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.602837077005156</v>
+        <v>1.624914658528126</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.280324976940197</v>
+        <v>1.303309099229947</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.488026722406787</v>
+        <v>1.321401845070001</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.405150900026013</v>
+        <v>1.644964989215847</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.430555506163315</v>
+        <v>1.397804086623094</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.418473171498219</v>
+        <v>1.642843143439145</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.753931572101814</v>
+        <v>1.624072373767878</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.720270367827567</v>
+        <v>1.725077030444432</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.167811693596123</v>
+        <v>1.404907276229649</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.314412807447729</v>
+        <v>1.491723257535102</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.435914894637517</v>
+        <v>1.529277132630259</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.429201694509408</v>
+        <v>1.614859141330919</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.559913630644407</v>
+        <v>1.415283126087371</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.841874264458214</v>
+        <v>1.446631988126428</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.497187794745298</v>
+        <v>1.630590337316823</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.711784826851869</v>
+        <v>1.450056712736842</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.564131546666389</v>
+        <v>1.407218076290546</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.636223566227448</v>
+        <v>1.238876102983621</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.336960034991964</v>
+        <v>1.428386572658842</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.543416298224054</v>
+        <v>1.601900550131323</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.581601073184587</v>
+        <v>1.55424749534561</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.434518617455868</v>
+        <v>1.622475811407193</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.397606963986682</v>
+        <v>1.529921302962032</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.403464626399912</v>
+        <v>1.53163661804938</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.528752971304773</v>
+        <v>1.429547405922448</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.515862256306403</v>
+        <v>1.482150433541058</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.38565315445707</v>
+        <v>1.308526589473359</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.475903490510921</v>
+        <v>1.630804046403758</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.511000971468984</v>
+        <v>1.287264667422097</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.560865397134813</v>
+        <v>1.465178287098726</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.354976751110411</v>
+        <v>1.551968297963792</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.397657525632911</v>
+        <v>1.542527352679634</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.515554881782576</v>
+        <v>1.551946506054968</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.425337402431805</v>
+        <v>1.406967315702887</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.459389067125731</v>
+        <v>1.596605126747304</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.353021021847843</v>
+        <v>1.52735040560909</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.135427301819349</v>
+        <v>1.449167643667236</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.52318225283567</v>
+        <v>1.299211557334286</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.483714907703905</v>
+        <v>1.485470123851417</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.542315388828176</v>
+        <v>1.278421976481761</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.542785019748334</v>
+        <v>1.459294078868172</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.437990154440536</v>
+        <v>1.46233587586214</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.707034918418838</v>
+        <v>1.453147507290654</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.522596409075431</v>
+        <v>1.220277444699374</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.308907074787223</v>
+        <v>1.474414858100632</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.586847671021417</v>
+        <v>1.388304989003611</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.373147582249516</v>
+        <v>1.313679191606268</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.272233886760349</v>
+        <v>1.427474637556531</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.488577013022686</v>
+        <v>1.603030269507502</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.530470342529557</v>
+        <v>1.413803113023866</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.530725687644543</v>
+        <v>1.36753132919162</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.483174168374403</v>
+        <v>1.457562988044627</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.605987635522415</v>
+        <v>1.590115466220491</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.468088361035648</v>
+        <v>1.049893175496903</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.195234383235697</v>
+        <v>1.7484462086543</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.145397859559987</v>
+        <v>1.314084518890519</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.423249310270133</v>
+        <v>1.523721721444608</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.417614524729039</v>
+        <v>1.692609595109937</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.711094259021594</v>
+        <v>1.556455262983609</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.409286283914175</v>
+        <v>1.635757670736182</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.527756688467638</v>
+        <v>1.62628573718571</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.331312503038257</v>
+        <v>1.207122843326675</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.7580359475256</v>
+        <v>1.489680224755334</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.510938527184686</v>
+        <v>1.531459913975699</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.481933375246778</v>
+        <v>1.523668772570167</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.296650636280541</v>
+        <v>1.361557261250868</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.324163146907422</v>
+        <v>1.494446357408412</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.272898932189288</v>
+        <v>1.403378443077624</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.249846838398743</v>
+        <v>1.456203664562706</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.548971866675432</v>
+        <v>1.578082256784353</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.167284190002714</v>
+        <v>1.284037624556443</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.507407754310566</v>
+        <v>1.72042413428681</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.470610956270698</v>
+        <v>1.686631601494693</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.474857959171376</v>
+        <v>1.257054232706825</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.605363324817424</v>
+        <v>1.234844722904563</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.472767223521793</v>
+        <v>1.771210340926691</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.433988485150893</v>
+        <v>1.365984821366218</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.266753757119796</v>
+        <v>1.465304315565495</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.41673252761326</v>
+        <v>1.388130558399345</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.640350601814491</v>
+        <v>1.399929792072282</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.655392262708322</v>
+        <v>1.461643590448566</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.533592926327338</v>
+        <v>1.744478456856794</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.609150413776305</v>
+        <v>1.442777715644231</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.459314978415301</v>
+        <v>1.290203604338343</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.336882264147954</v>
+        <v>1.704356790153266</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.571809863147371</v>
+        <v>1.377281150195526</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.331483101989648</v>
+        <v>1.423407370315652</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.625155994319371</v>
+        <v>1.454056651434868</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.467731935535631</v>
+        <v>1.625554790873898</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.472880028555296</v>
+        <v>1.692341280866228</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.693242053760684</v>
+        <v>1.312588376485556</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.220945883675077</v>
+        <v>1.367315568340657</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.80393915145665</v>
+        <v>1.704084398490209</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.474456795554387</v>
+        <v>1.489670711689203</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.509022568782399</v>
+        <v>1.419242776523698</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.461939807012274</v>
+        <v>1.521174675461503</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.671258564064148</v>
+        <v>1.547738757582076</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.604084741059423</v>
+        <v>1.163582379571524</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.446231103270395</v>
+        <v>1.538976166863611</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.419952289370636</v>
+        <v>1.58795105426058</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.642599022860439</v>
+        <v>1.365856870494418</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.512055611248198</v>
+        <v>1.448841384544138</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.626770406906437</v>
+        <v>1.751147419012581</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.648241451031543</v>
+        <v>1.300667348042837</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.521186072354424</v>
+        <v>1.621086541879639</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.595515298073676</v>
+        <v>1.502623453149539</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.557391586821653</v>
+        <v>1.545069232622663</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.353445423999313</v>
+        <v>1.690275735749071</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.506871551888256</v>
+        <v>1.744373300467853</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.81000253193804</v>
+        <v>1.407732564642163</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.59525746831284</v>
+        <v>1.6883101357298</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.362007448662272</v>
+        <v>1.669725105511922</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.329401309207022</v>
+        <v>1.414623429397289</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.417115818134426</v>
+        <v>1.421502633032852</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.58142521908036</v>
+        <v>1.29501491810382</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.159192046313358</v>
+        <v>1.39284837895801</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.419955405824083</v>
+        <v>1.593982430515572</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.567318597324161</v>
+        <v>1.441808433926161</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.739857060549071</v>
+        <v>1.609366238399934</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.594288068834035</v>
+        <v>1.74777295298975</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.177558015014005</v>
+        <v>1.462168565514096</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.477169979874711</v>
+        <v>1.509421221123889</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.702180745424574</v>
+        <v>1.720467727973262</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.428162393894939</v>
+        <v>1.670985514466787</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.5434828842335</v>
+        <v>1.338641340692127</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>1.232333715211831</v>
+        <v>1.504407440707316</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.379684405794634</v>
+        <v>1.378324943519267</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.445445626655064</v>
+        <v>1.445308432768419</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.57918876018561</v>
+        <v>1.570737108459179</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.551985944584229</v>
+        <v>1.626927270431585</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.338726827544823</v>
+        <v>1.312186136444004</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.597734246443373</v>
+        <v>1.542978691234147</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.52754768912736</v>
+        <v>1.387809615621421</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.597825719275843</v>
+        <v>1.345886532776468</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.461344729301831</v>
+        <v>1.452796821921468</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.628189145462062</v>
+        <v>1.366021793786982</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.459817719206196</v>
+        <v>1.447238423920806</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.627064582362011</v>
+        <v>1.523987479114581</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.63548704101108</v>
+        <v>1.397224945107436</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.455325489020562</v>
+        <v>1.470403103044214</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.923185549651615</v>
+        <v>1.421621122380946</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.492310204405576</v>
+        <v>1.533043181712065</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.506309391175104</v>
+        <v>1.554929142573162</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.243979697314935</v>
+        <v>1.6195490756352</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.824540352780393</v>
+        <v>1.390538814828617</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.453861620737373</v>
+        <v>1.650981728531693</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.57704622204142</v>
+        <v>1.571348630039409</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.444908080375297</v>
+        <v>1.657739415327359</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.498475550136079</v>
+        <v>1.696092505577327</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.454111377913953</v>
+        <v>1.769007086055146</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.350281948644932</v>
+        <v>1.641470251658515</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.41479218124885</v>
+        <v>1.474504505533524</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.464805650530887</v>
+        <v>1.2425353097179</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.580830505389068</v>
+        <v>1.641542200654236</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.312631196355943</v>
+        <v>1.561618379494725</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.62055806861993</v>
+        <v>1.280357667157855</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.583861456563192</v>
+        <v>1.467062265056653</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.634477786531261</v>
+        <v>1.602271243627563</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.397785569646368</v>
+        <v>1.582187779635867</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1.666387548559956</v>
+        <v>1.360401015376851</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.615155616385511</v>
+        <v>1.489543576216587</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.519827048310858</v>
+        <v>1.679397952582724</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.276461896234773</v>
+        <v>1.244065170982133</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.423392060299872</v>
+        <v>1.463443898854704</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.36262418205698</v>
+        <v>1.528239011768467</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.472400754312611</v>
+        <v>1.469804097248416</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.646699799308366</v>
+        <v>1.269554953669285</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.383591764055278</v>
+        <v>1.563910102141995</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.455759676630692</v>
+        <v>1.389487481072235</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.631232334231797</v>
+        <v>1.499127219369094</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.509831734623087</v>
+        <v>1.574435537370278</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.361959340866146</v>
+        <v>1.226276994960308</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.411910956842361</v>
+        <v>1.423832497919795</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.424564690403883</v>
+        <v>1.406020162703836</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.729457552311521</v>
+        <v>1.50248156997533</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.558851667772078</v>
+        <v>1.861611552016482</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.630078589044911</v>
+        <v>1.234717080147583</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.585866815057555</v>
+        <v>1.43812775925914</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.635997828831021</v>
+        <v>1.405310409879887</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.53110940263873</v>
+        <v>1.81004257802975</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.502735870089448</v>
+        <v>1.368131552321928</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.607171549365026</v>
+        <v>1.598499420896008</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.287879095816177</v>
+        <v>1.521484652237394</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.659882148814778</v>
+        <v>1.503998017940043</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.414605115638877</v>
+        <v>1.361849438531537</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.398095213309935</v>
+        <v>1.446345184386113</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.753571073231873</v>
+        <v>1.49540173899132</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.514997997778281</v>
+        <v>1.498566557456595</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.566102209222291</v>
+        <v>1.547181691682152</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.497720109422781</v>
+        <v>1.619013636867975</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.496528782511483</v>
+        <v>1.539291544372765</v>
       </c>
     </row>
   </sheetData>
